--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>993.5519927711393</v>
+        <v>1150.134167677932</v>
       </c>
       <c r="AB2" t="n">
-        <v>1359.421668929857</v>
+        <v>1573.664308555352</v>
       </c>
       <c r="AC2" t="n">
-        <v>1229.680372807486</v>
+        <v>1423.475995598557</v>
       </c>
       <c r="AD2" t="n">
-        <v>993551.9927711394</v>
+        <v>1150134.167677932</v>
       </c>
       <c r="AE2" t="n">
-        <v>1359421.668929857</v>
+        <v>1573664.308555352</v>
       </c>
       <c r="AF2" t="n">
         <v>5.092398403464183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.82083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1229680.372807486</v>
+        <v>1423475.995598557</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.8558466981438</v>
+        <v>482.9183727124982</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.2591892629291</v>
+        <v>660.7502224002238</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.6976104982089</v>
+        <v>597.6891485431072</v>
       </c>
       <c r="AD3" t="n">
-        <v>394855.8466981438</v>
+        <v>482918.3727124982</v>
       </c>
       <c r="AE3" t="n">
-        <v>540259.1892629291</v>
+        <v>660750.2224002238</v>
       </c>
       <c r="AF3" t="n">
         <v>9.41636032915139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>488697.6104982089</v>
+        <v>597689.1485431072</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>322.2722750913916</v>
+        <v>390.7246041761257</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.9471444293888</v>
+        <v>534.606640986747</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.8637678382513</v>
+        <v>483.5845334961042</v>
       </c>
       <c r="AD4" t="n">
-        <v>322272.2750913916</v>
+        <v>390724.6041761257</v>
       </c>
       <c r="AE4" t="n">
-        <v>440947.1444293888</v>
+        <v>534606.640986747</v>
       </c>
       <c r="AF4" t="n">
         <v>1.095963692202015e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.32083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>398863.7678382513</v>
+        <v>483584.5334961042</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>292.2299340076137</v>
+        <v>360.6480976735669</v>
       </c>
       <c r="AB5" t="n">
-        <v>399.8418879840154</v>
+        <v>493.4546379081258</v>
       </c>
       <c r="AC5" t="n">
-        <v>361.6815393764345</v>
+        <v>446.3600198341075</v>
       </c>
       <c r="AD5" t="n">
-        <v>292229.9340076137</v>
+        <v>360648.0976735669</v>
       </c>
       <c r="AE5" t="n">
-        <v>399841.8879840154</v>
+        <v>493454.6379081258</v>
       </c>
       <c r="AF5" t="n">
         <v>1.174653094264569e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.3625</v>
       </c>
       <c r="AH5" t="n">
-        <v>361681.5393764345</v>
+        <v>446360.0198341075</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>270.1425062242814</v>
+        <v>338.6279896979391</v>
       </c>
       <c r="AB6" t="n">
-        <v>369.6208948623182</v>
+        <v>463.32575471727</v>
       </c>
       <c r="AC6" t="n">
-        <v>334.3447954228419</v>
+        <v>419.1065949688339</v>
       </c>
       <c r="AD6" t="n">
-        <v>270142.5062242814</v>
+        <v>338627.9896979391</v>
       </c>
       <c r="AE6" t="n">
-        <v>369620.8948623182</v>
+        <v>463325.75471727</v>
       </c>
       <c r="AF6" t="n">
         <v>1.227313594065168e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.7875</v>
       </c>
       <c r="AH6" t="n">
-        <v>334344.7954228419</v>
+        <v>419106.5949688339</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>267.3756369362231</v>
+        <v>335.8611204098808</v>
       </c>
       <c r="AB7" t="n">
-        <v>365.8351422367388</v>
+        <v>459.5400020916906</v>
       </c>
       <c r="AC7" t="n">
-        <v>330.9203497145106</v>
+        <v>415.6821492605026</v>
       </c>
       <c r="AD7" t="n">
-        <v>267375.6369362231</v>
+        <v>335861.1204098808</v>
       </c>
       <c r="AE7" t="n">
-        <v>365835.1422367388</v>
+        <v>459540.0020916906</v>
       </c>
       <c r="AF7" t="n">
         <v>1.241778280705675e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.6375</v>
       </c>
       <c r="AH7" t="n">
-        <v>330920.3497145106</v>
+        <v>415682.1492605026</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>258.9698668923796</v>
+        <v>317.6336747067654</v>
       </c>
       <c r="AB8" t="n">
-        <v>354.3339968263501</v>
+        <v>434.6004067425369</v>
       </c>
       <c r="AC8" t="n">
-        <v>320.5168574801304</v>
+        <v>393.1227538885302</v>
       </c>
       <c r="AD8" t="n">
-        <v>258969.8668923797</v>
+        <v>317633.6747067653</v>
       </c>
       <c r="AE8" t="n">
-        <v>354333.9968263501</v>
+        <v>434600.4067425369</v>
       </c>
       <c r="AF8" t="n">
         <v>1.278354350309668e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.27916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>320516.8574801304</v>
+        <v>393122.7538885302</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>254.6435878281443</v>
+        <v>313.3073956425331</v>
       </c>
       <c r="AB9" t="n">
-        <v>348.4145909485367</v>
+        <v>428.6810008648924</v>
       </c>
       <c r="AC9" t="n">
-        <v>315.1623913914619</v>
+        <v>387.7682877999098</v>
       </c>
       <c r="AD9" t="n">
-        <v>254643.5878281443</v>
+        <v>313307.3956425331</v>
       </c>
       <c r="AE9" t="n">
-        <v>348414.5909485366</v>
+        <v>428681.0008648924</v>
       </c>
       <c r="AF9" t="n">
         <v>1.29741458843492e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.09583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>315162.3913914619</v>
+        <v>387768.2877999098</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>240.5352436640758</v>
+        <v>308.9865617189556</v>
       </c>
       <c r="AB10" t="n">
-        <v>329.1109320470513</v>
+        <v>422.7690452689145</v>
       </c>
       <c r="AC10" t="n">
-        <v>297.7010466026728</v>
+        <v>382.4205609485302</v>
       </c>
       <c r="AD10" t="n">
-        <v>240535.2436640758</v>
+        <v>308986.5617189556</v>
       </c>
       <c r="AE10" t="n">
-        <v>329110.9320470513</v>
+        <v>422769.0452689144</v>
       </c>
       <c r="AF10" t="n">
         <v>1.315156430642418e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.93333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>297701.0466026728</v>
+        <v>382420.5609485302</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>235.7320367265067</v>
+        <v>294.4631643485997</v>
       </c>
       <c r="AB11" t="n">
-        <v>322.5389724125378</v>
+        <v>402.8974922597217</v>
       </c>
       <c r="AC11" t="n">
-        <v>291.7563055718718</v>
+        <v>364.4455210686349</v>
       </c>
       <c r="AD11" t="n">
-        <v>235732.0367265067</v>
+        <v>294463.1643485997</v>
       </c>
       <c r="AE11" t="n">
-        <v>322538.9724125378</v>
+        <v>402897.4922597217</v>
       </c>
       <c r="AF11" t="n">
         <v>1.336062423052527e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.74583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>291756.3055718718</v>
+        <v>364445.5210686349</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>235.4952194115463</v>
+        <v>294.2263470336392</v>
       </c>
       <c r="AB12" t="n">
-        <v>322.2149485145665</v>
+        <v>402.5734683617503</v>
       </c>
       <c r="AC12" t="n">
-        <v>291.4632060599524</v>
+        <v>364.1524215567155</v>
       </c>
       <c r="AD12" t="n">
-        <v>235495.2194115462</v>
+        <v>294226.3470336392</v>
       </c>
       <c r="AE12" t="n">
-        <v>322214.9485145665</v>
+        <v>402573.4683617502</v>
       </c>
       <c r="AF12" t="n">
         <v>1.332220240663642e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.78333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>291463.2060599524</v>
+        <v>364152.4215567155</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>232.9056204669321</v>
+        <v>291.636748089025</v>
       </c>
       <c r="AB13" t="n">
-        <v>318.6717449935047</v>
+        <v>399.0302648406867</v>
       </c>
       <c r="AC13" t="n">
-        <v>288.2581609100224</v>
+        <v>360.9473764067849</v>
       </c>
       <c r="AD13" t="n">
-        <v>232905.6204669321</v>
+        <v>291636.748089025</v>
       </c>
       <c r="AE13" t="n">
-        <v>318671.7449935047</v>
+        <v>399030.2648406867</v>
       </c>
       <c r="AF13" t="n">
         <v>1.340582637627685e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.70833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>288258.1609100223</v>
+        <v>360947.3764067849</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>230.0029435440574</v>
+        <v>288.7340711661503</v>
       </c>
       <c r="AB14" t="n">
-        <v>314.7001743705616</v>
+        <v>395.0586942177415</v>
       </c>
       <c r="AC14" t="n">
-        <v>284.6656314131972</v>
+        <v>357.3548469099592</v>
       </c>
       <c r="AD14" t="n">
-        <v>230002.9435440574</v>
+        <v>288734.0711661503</v>
       </c>
       <c r="AE14" t="n">
-        <v>314700.1743705616</v>
+        <v>395058.6942177415</v>
       </c>
       <c r="AF14" t="n">
         <v>1.351054468060136e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.61666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>284665.6314131972</v>
+        <v>357354.8469099592</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>226.7250812553978</v>
+        <v>285.4562088774907</v>
       </c>
       <c r="AB15" t="n">
-        <v>310.2152585781416</v>
+        <v>390.5737784253191</v>
       </c>
       <c r="AC15" t="n">
-        <v>280.6087496893855</v>
+        <v>353.2979651861468</v>
       </c>
       <c r="AD15" t="n">
-        <v>226725.0812553978</v>
+        <v>285456.2088774907</v>
       </c>
       <c r="AE15" t="n">
-        <v>310215.2585781416</v>
+        <v>390573.7784253191</v>
       </c>
       <c r="AF15" t="n">
         <v>1.360584587122763e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.5375</v>
       </c>
       <c r="AH15" t="n">
-        <v>280608.7496893855</v>
+        <v>353297.9651861468</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>225.4140472931518</v>
+        <v>284.1451749152447</v>
       </c>
       <c r="AB16" t="n">
-        <v>308.4214440722611</v>
+        <v>388.7799639194378</v>
       </c>
       <c r="AC16" t="n">
-        <v>278.9861343223113</v>
+        <v>351.6753498190723</v>
       </c>
       <c r="AD16" t="n">
-        <v>225414.0472931518</v>
+        <v>284145.1749152447</v>
       </c>
       <c r="AE16" t="n">
-        <v>308421.4440722611</v>
+        <v>388779.9639194378</v>
       </c>
       <c r="AF16" t="n">
         <v>1.362656352136377e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>278986.1343223113</v>
+        <v>351675.3498190723</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>224.9048723062746</v>
+        <v>283.6359999283674</v>
       </c>
       <c r="AB17" t="n">
-        <v>307.724768392001</v>
+        <v>388.0832882391773</v>
       </c>
       <c r="AC17" t="n">
-        <v>278.3559483911845</v>
+        <v>351.0451638879454</v>
       </c>
       <c r="AD17" t="n">
-        <v>224904.8723062746</v>
+        <v>283635.9999283674</v>
       </c>
       <c r="AE17" t="n">
-        <v>307724.768392001</v>
+        <v>388083.2882391773</v>
       </c>
       <c r="AF17" t="n">
         <v>1.361488630037794e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.52916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>278355.9483911845</v>
+        <v>351045.1638879454</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>225.445556078658</v>
+        <v>284.1766837007509</v>
       </c>
       <c r="AB18" t="n">
-        <v>308.4645557826602</v>
+        <v>388.8230756298369</v>
       </c>
       <c r="AC18" t="n">
-        <v>279.0251315115775</v>
+        <v>351.7143470083386</v>
       </c>
       <c r="AD18" t="n">
-        <v>225445.556078658</v>
+        <v>284176.6837007509</v>
       </c>
       <c r="AE18" t="n">
-        <v>308464.5557826602</v>
+        <v>388823.0756298369</v>
       </c>
       <c r="AF18" t="n">
         <v>1.360885934761107e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.53333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>279025.1315115775</v>
+        <v>351714.3470083385</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>653.7523157875046</v>
+        <v>769.8515857810974</v>
       </c>
       <c r="AB2" t="n">
-        <v>894.4927599771048</v>
+        <v>1053.344903120643</v>
       </c>
       <c r="AC2" t="n">
-        <v>809.1236263933627</v>
+        <v>952.8151439456642</v>
       </c>
       <c r="AD2" t="n">
-        <v>653752.3157875045</v>
+        <v>769851.5857810974</v>
       </c>
       <c r="AE2" t="n">
-        <v>894492.7599771048</v>
+        <v>1053344.903120643</v>
       </c>
       <c r="AF2" t="n">
         <v>7.071879759162214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.28333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>809123.6263933626</v>
+        <v>952815.1439456642</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.7517270077027</v>
+        <v>410.0946349820824</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.2855928620751</v>
+        <v>561.1095716809053</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.8337748766608</v>
+        <v>507.5580616819089</v>
       </c>
       <c r="AD3" t="n">
-        <v>332751.7270077027</v>
+        <v>410094.6349820824</v>
       </c>
       <c r="AE3" t="n">
-        <v>455285.5928620751</v>
+        <v>561109.5716809053</v>
       </c>
       <c r="AF3" t="n">
         <v>1.125367787295519e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.25833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>411833.7748766608</v>
+        <v>507558.0616819089</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.5700216348391</v>
+        <v>346.333865685596</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.1517932427832</v>
+        <v>473.8692742028376</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.7752010455928</v>
+        <v>428.6438557526214</v>
       </c>
       <c r="AD4" t="n">
-        <v>278570.0216348391</v>
+        <v>346333.865685596</v>
       </c>
       <c r="AE4" t="n">
-        <v>381151.7932427832</v>
+        <v>473869.2742028376</v>
       </c>
       <c r="AF4" t="n">
         <v>1.269459707321344e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.52916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>344775.2010455928</v>
+        <v>428643.8557526214</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>253.5762556336317</v>
+        <v>321.3059342656109</v>
       </c>
       <c r="AB5" t="n">
-        <v>346.9542199526322</v>
+        <v>439.6249542796072</v>
       </c>
       <c r="AC5" t="n">
-        <v>313.8413961537626</v>
+        <v>397.6677656606593</v>
       </c>
       <c r="AD5" t="n">
-        <v>253576.2556336317</v>
+        <v>321305.9342656109</v>
       </c>
       <c r="AE5" t="n">
-        <v>346954.2199526322</v>
+        <v>439624.9542796072</v>
       </c>
       <c r="AF5" t="n">
         <v>1.346987425161326e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>313841.3961537626</v>
+        <v>397667.7656606592</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.7441040450993</v>
+        <v>304.7600791380467</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.6061687359515</v>
+        <v>416.986185342463</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.3855098251266</v>
+        <v>377.1896090571643</v>
       </c>
       <c r="AD6" t="n">
-        <v>246744.1040450993</v>
+        <v>304760.0791380467</v>
       </c>
       <c r="AE6" t="n">
-        <v>337606.1687359515</v>
+        <v>416986.185342463</v>
       </c>
       <c r="AF6" t="n">
         <v>1.384494189241275e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.40416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>305385.5098251266</v>
+        <v>377189.6090571643</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>239.8914967816939</v>
+        <v>297.9074718746412</v>
       </c>
       <c r="AB7" t="n">
-        <v>328.2301291624688</v>
+        <v>407.6101457689755</v>
       </c>
       <c r="AC7" t="n">
-        <v>296.9043063091799</v>
+        <v>368.7084055412163</v>
       </c>
       <c r="AD7" t="n">
-        <v>239891.4967816939</v>
+        <v>297907.4718746412</v>
       </c>
       <c r="AE7" t="n">
-        <v>328230.1291624688</v>
+        <v>407610.1457689755</v>
       </c>
       <c r="AF7" t="n">
         <v>1.419198250071293e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>296904.3063091799</v>
+        <v>368708.4055412163</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>225.1197344019703</v>
+        <v>292.8152476151683</v>
       </c>
       <c r="AB8" t="n">
-        <v>308.0187521903784</v>
+        <v>400.6427398840856</v>
       </c>
       <c r="AC8" t="n">
-        <v>278.6218747884537</v>
+        <v>362.4059590951647</v>
       </c>
       <c r="AD8" t="n">
-        <v>225119.7344019703</v>
+        <v>292815.2476151683</v>
       </c>
       <c r="AE8" t="n">
-        <v>308018.7521903784</v>
+        <v>400642.7398840856</v>
       </c>
       <c r="AF8" t="n">
         <v>1.444175281975083e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.89166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>278621.8747884537</v>
+        <v>362405.9590951647</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>220.9304487828498</v>
+        <v>279.0137436835012</v>
       </c>
       <c r="AB9" t="n">
-        <v>302.2867867880628</v>
+        <v>381.7589133253977</v>
       </c>
       <c r="AC9" t="n">
-        <v>273.4369601192693</v>
+        <v>345.3243784396209</v>
       </c>
       <c r="AD9" t="n">
-        <v>220930.4487828498</v>
+        <v>279013.7436835011</v>
       </c>
       <c r="AE9" t="n">
-        <v>302286.7867880628</v>
+        <v>381758.9133253976</v>
       </c>
       <c r="AF9" t="n">
         <v>1.461980690856993e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.74583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>273436.9601192693</v>
+        <v>345324.378439621</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>217.5085270653485</v>
+        <v>275.5918219659999</v>
       </c>
       <c r="AB10" t="n">
-        <v>297.6047625296484</v>
+        <v>377.0768890669808</v>
       </c>
       <c r="AC10" t="n">
-        <v>269.2017816848141</v>
+        <v>341.0892000051651</v>
       </c>
       <c r="AD10" t="n">
-        <v>217508.5270653485</v>
+        <v>275591.8219659999</v>
       </c>
       <c r="AE10" t="n">
-        <v>297604.7625296484</v>
+        <v>377076.8890669808</v>
       </c>
       <c r="AF10" t="n">
         <v>1.475540828639744e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.6375</v>
       </c>
       <c r="AH10" t="n">
-        <v>269201.7816848141</v>
+        <v>341089.2000051651</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>214.3350391522313</v>
+        <v>272.4183340528826</v>
       </c>
       <c r="AB11" t="n">
-        <v>293.2626563625178</v>
+        <v>372.734782899848</v>
       </c>
       <c r="AC11" t="n">
-        <v>265.2740800360888</v>
+        <v>337.1614983564391</v>
       </c>
       <c r="AD11" t="n">
-        <v>214335.0391522313</v>
+        <v>272418.3340528826</v>
       </c>
       <c r="AE11" t="n">
-        <v>293262.6563625178</v>
+        <v>372734.782899848</v>
       </c>
       <c r="AF11" t="n">
         <v>1.484938127771863e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.56666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>265274.0800360888</v>
+        <v>337161.4983564391</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>212.0433096322303</v>
+        <v>270.0251193063963</v>
       </c>
       <c r="AB12" t="n">
-        <v>290.1270109292832</v>
+        <v>369.4602809025225</v>
       </c>
       <c r="AC12" t="n">
-        <v>262.4376962020952</v>
+        <v>334.1995102339459</v>
       </c>
       <c r="AD12" t="n">
-        <v>212043.3096322303</v>
+        <v>270025.1193063963</v>
       </c>
       <c r="AE12" t="n">
-        <v>290127.0109292832</v>
+        <v>369460.2809025225</v>
       </c>
       <c r="AF12" t="n">
         <v>1.493717183540027e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.49583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>262437.6962020952</v>
+        <v>334199.510233946</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>212.4041609833668</v>
+        <v>270.3859706575329</v>
       </c>
       <c r="AB13" t="n">
-        <v>290.6207436675461</v>
+        <v>369.9540136407856</v>
       </c>
       <c r="AC13" t="n">
-        <v>262.8843077807766</v>
+        <v>334.6461218126275</v>
       </c>
       <c r="AD13" t="n">
-        <v>212404.1609833668</v>
+        <v>270385.9706575329</v>
       </c>
       <c r="AE13" t="n">
-        <v>290620.7436675461</v>
+        <v>369954.0136407856</v>
       </c>
       <c r="AF13" t="n">
         <v>1.49330502129739e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>262884.3077807766</v>
+        <v>334646.1218126275</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.7754290629954</v>
+        <v>354.6192829808075</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.801084864809</v>
+        <v>485.2057476729596</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.2670865900078</v>
+        <v>438.8983921055955</v>
       </c>
       <c r="AD2" t="n">
-        <v>279775.4290629954</v>
+        <v>354619.2829808075</v>
       </c>
       <c r="AE2" t="n">
-        <v>382801.084864809</v>
+        <v>485205.7476729596</v>
       </c>
       <c r="AF2" t="n">
         <v>1.538035499557844e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>346267.0865900078</v>
+        <v>438898.3921055955</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.9310961079251</v>
+        <v>271.3853028672325</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.7640107335034</v>
+        <v>371.3213440575221</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.8728490074534</v>
+        <v>335.8829561334509</v>
       </c>
       <c r="AD3" t="n">
-        <v>205931.0961079251</v>
+        <v>271385.3028672325</v>
       </c>
       <c r="AE3" t="n">
-        <v>281764.0107335034</v>
+        <v>371321.3440575221</v>
       </c>
       <c r="AF3" t="n">
         <v>1.906278074185476e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>254872.8490074534</v>
+        <v>335882.9561334509</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.2346538701456</v>
+        <v>250.6546952106688</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.446225401197</v>
+        <v>342.9568120917871</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.2576733629919</v>
+        <v>310.2254952887581</v>
       </c>
       <c r="AD4" t="n">
-        <v>185234.6538701456</v>
+        <v>250654.6952106688</v>
       </c>
       <c r="AE4" t="n">
-        <v>253446.2254011969</v>
+        <v>342956.8120917871</v>
       </c>
       <c r="AF4" t="n">
         <v>2.008219308717606e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>229257.6733629919</v>
+        <v>310225.4952887581</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.1724960410078</v>
+        <v>238.3053864793662</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.2564459665037</v>
+        <v>326.0599430725771</v>
       </c>
       <c r="AC5" t="n">
-        <v>225.4677605971521</v>
+        <v>294.9412397338315</v>
       </c>
       <c r="AD5" t="n">
-        <v>182172.4960410078</v>
+        <v>238305.3864793662</v>
       </c>
       <c r="AE5" t="n">
-        <v>249256.4459665037</v>
+        <v>326059.9430725771</v>
       </c>
       <c r="AF5" t="n">
         <v>2.041701136312245e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.74166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>225467.7605971521</v>
+        <v>294941.2397338315</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.7195409793512</v>
+        <v>463.4769114265784</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.4983427260472</v>
+        <v>634.1495573720897</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.3497289641435</v>
+        <v>573.6272136509904</v>
       </c>
       <c r="AD2" t="n">
-        <v>368719.5409793511</v>
+        <v>463476.9114265784</v>
       </c>
       <c r="AE2" t="n">
-        <v>504498.3427260472</v>
+        <v>634149.5573720897</v>
       </c>
       <c r="AF2" t="n">
         <v>1.154129993818739e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>456349.7289641435</v>
+        <v>573627.2136509904</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.383289478543</v>
+        <v>313.659795151413</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.4807304448598</v>
+        <v>429.163169419711</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.176604591992</v>
+        <v>388.2044388645843</v>
       </c>
       <c r="AD3" t="n">
-        <v>247383.289478543</v>
+        <v>313659.795151413</v>
       </c>
       <c r="AE3" t="n">
-        <v>338480.7304448598</v>
+        <v>429163.169419711</v>
       </c>
       <c r="AF3" t="n">
         <v>1.542925231311678e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>306176.604591992</v>
+        <v>388204.4388645844</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.3251060763304</v>
+        <v>276.153207039502</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.0902860742825</v>
+        <v>377.8450008911079</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.4500903508033</v>
+        <v>341.7840043148492</v>
       </c>
       <c r="AD4" t="n">
-        <v>219325.1060763304</v>
+        <v>276153.207039502</v>
       </c>
       <c r="AE4" t="n">
-        <v>300090.2860742825</v>
+        <v>377845.0008911079</v>
       </c>
       <c r="AF4" t="n">
         <v>1.67953165637647e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.35833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>271450.0903508033</v>
+        <v>341784.0043148492</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.9233218974523</v>
+        <v>268.2329819592454</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.2803972482177</v>
+        <v>367.0081995206307</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.9125838969018</v>
+        <v>331.9814520576241</v>
       </c>
       <c r="AD5" t="n">
-        <v>201923.3218974523</v>
+        <v>268232.9819592453</v>
       </c>
       <c r="AE5" t="n">
-        <v>276280.3972482177</v>
+        <v>367008.1995206308</v>
       </c>
       <c r="AF5" t="n">
         <v>1.733486710477553e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.975</v>
       </c>
       <c r="AH5" t="n">
-        <v>249912.5838969018</v>
+        <v>331981.4520576241</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.984436361096</v>
+        <v>251.8798571319686</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.7863079353551</v>
+        <v>344.6331326828379</v>
       </c>
       <c r="AC6" t="n">
-        <v>241.3245971430177</v>
+        <v>311.7418301953303</v>
       </c>
       <c r="AD6" t="n">
-        <v>194984.436361096</v>
+        <v>251879.8571319686</v>
       </c>
       <c r="AE6" t="n">
-        <v>266786.3079353551</v>
+        <v>344633.1326828379</v>
       </c>
       <c r="AF6" t="n">
         <v>1.780466965341193e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.65833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>241324.5971430177</v>
+        <v>311741.8301953303</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>192.9833700085704</v>
+        <v>249.878790779443</v>
       </c>
       <c r="AB7" t="n">
-        <v>264.048360671014</v>
+        <v>341.8951854184969</v>
       </c>
       <c r="AC7" t="n">
-        <v>238.8479557228513</v>
+        <v>309.2651887751639</v>
       </c>
       <c r="AD7" t="n">
-        <v>192983.3700085704</v>
+        <v>249878.790779443</v>
       </c>
       <c r="AE7" t="n">
-        <v>264048.360671014</v>
+        <v>341895.1854184968</v>
       </c>
       <c r="AF7" t="n">
         <v>1.792672864006719e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.57916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>238847.9557228513</v>
+        <v>309265.188775164</v>
       </c>
     </row>
   </sheetData>
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.4617854730857</v>
+        <v>295.1531680036243</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.327982140535</v>
+        <v>403.8415857013392</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.2335220907383</v>
+        <v>365.299511557228</v>
       </c>
       <c r="AD2" t="n">
-        <v>230461.7854730856</v>
+        <v>295153.1680036243</v>
       </c>
       <c r="AE2" t="n">
-        <v>315327.982140535</v>
+        <v>403841.5857013392</v>
       </c>
       <c r="AF2" t="n">
         <v>1.944854194365567e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.11666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>285233.5220907383</v>
+        <v>365299.511557228</v>
       </c>
     </row>
     <row r="3">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.8096768490512</v>
+        <v>239.2498161884091</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.4965089753873</v>
+        <v>327.3521534657871</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.4940351364167</v>
+        <v>296.1101233807426</v>
       </c>
       <c r="AD3" t="n">
-        <v>183809.6768490512</v>
+        <v>239249.8161884091</v>
       </c>
       <c r="AE3" t="n">
-        <v>251496.5089753873</v>
+        <v>327352.1534657871</v>
       </c>
       <c r="AF3" t="n">
         <v>2.280373829739922e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.0375</v>
       </c>
       <c r="AH3" t="n">
-        <v>227494.0351364167</v>
+        <v>296110.1233807426</v>
       </c>
     </row>
     <row r="4">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.6806240934229</v>
+        <v>239.1207634327809</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.319933301731</v>
+        <v>327.1755777921309</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.3343115972286</v>
+        <v>295.9503998415546</v>
       </c>
       <c r="AD4" t="n">
-        <v>183680.624093423</v>
+        <v>239120.7634327809</v>
       </c>
       <c r="AE4" t="n">
-        <v>251319.933301731</v>
+        <v>327175.5777921309</v>
       </c>
       <c r="AF4" t="n">
         <v>2.286962982044996e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.00416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>227334.3115972286</v>
+        <v>295950.3998415546</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.6550807178974</v>
+        <v>844.8711538026454</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.2955862627749</v>
+        <v>1155.989985717483</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.451235573878</v>
+        <v>1045.663923922741</v>
       </c>
       <c r="AD2" t="n">
-        <v>718655.0807178974</v>
+        <v>844871.1538026454</v>
       </c>
       <c r="AE2" t="n">
-        <v>983295.5862627749</v>
+        <v>1155989.985717483</v>
       </c>
       <c r="AF2" t="n">
         <v>6.525381245809818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.68333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>889451.2355738779</v>
+        <v>1045663.923922741</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.5941619562425</v>
+        <v>422.2655915468566</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.4889348100244</v>
+        <v>577.7624113975373</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.4906926106311</v>
+        <v>522.6215777483928</v>
       </c>
       <c r="AD3" t="n">
-        <v>344594.1619562425</v>
+        <v>422265.5915468566</v>
       </c>
       <c r="AE3" t="n">
-        <v>471488.9348100245</v>
+        <v>577762.4113975373</v>
       </c>
       <c r="AF3" t="n">
         <v>1.075859362328444e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>426490.6926106311</v>
+        <v>522621.5777483928</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>286.1312460294912</v>
+        <v>354.0937469212785</v>
       </c>
       <c r="AB4" t="n">
-        <v>391.4973940372236</v>
+        <v>484.4866860512973</v>
       </c>
       <c r="AC4" t="n">
-        <v>354.1334322203538</v>
+        <v>438.2479567158953</v>
       </c>
       <c r="AD4" t="n">
-        <v>286131.2460294912</v>
+        <v>354093.7469212785</v>
       </c>
       <c r="AE4" t="n">
-        <v>391497.3940372236</v>
+        <v>484486.6860512974</v>
       </c>
       <c r="AF4" t="n">
         <v>1.224474276673041e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>354133.4322203537</v>
+        <v>438247.9567158953</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>260.3033996921136</v>
+        <v>328.2317351651202</v>
       </c>
       <c r="AB5" t="n">
-        <v>356.1585952342611</v>
+        <v>449.1011406150871</v>
       </c>
       <c r="AC5" t="n">
-        <v>322.1673187768303</v>
+        <v>406.2395580721922</v>
       </c>
       <c r="AD5" t="n">
-        <v>260303.3996921136</v>
+        <v>328231.7351651202</v>
       </c>
       <c r="AE5" t="n">
-        <v>356158.5952342611</v>
+        <v>449101.1406150871</v>
       </c>
       <c r="AF5" t="n">
         <v>1.301054194646548e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.87916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>322167.3187768303</v>
+        <v>406239.5580721921</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.2343300150688</v>
+        <v>306.4205824003282</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.6451616521925</v>
+        <v>419.2581591621501</v>
       </c>
       <c r="AC6" t="n">
-        <v>307.2299041191868</v>
+        <v>379.2447488842358</v>
       </c>
       <c r="AD6" t="n">
-        <v>248234.3300150688</v>
+        <v>306420.5824003281</v>
       </c>
       <c r="AE6" t="n">
-        <v>339645.1616521925</v>
+        <v>419258.1591621501</v>
       </c>
       <c r="AF6" t="n">
         <v>1.363275378000023e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>307229.9041191867</v>
+        <v>379244.7488842359</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.3094005358978</v>
+        <v>304.4956529211571</v>
       </c>
       <c r="AB7" t="n">
-        <v>337.0113882168969</v>
+        <v>416.6243857268532</v>
       </c>
       <c r="AC7" t="n">
-        <v>304.8474943240307</v>
+        <v>376.8623390890794</v>
       </c>
       <c r="AD7" t="n">
-        <v>246309.4005358978</v>
+        <v>304495.6529211571</v>
       </c>
       <c r="AE7" t="n">
-        <v>337011.3882168969</v>
+        <v>416624.3857268532</v>
       </c>
       <c r="AF7" t="n">
         <v>1.371399928121162e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.22083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>304847.4943240307</v>
+        <v>376862.3390890794</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>230.5971791397468</v>
+        <v>298.4913491939755</v>
       </c>
       <c r="AB8" t="n">
-        <v>315.5132337284077</v>
+        <v>408.4090324761379</v>
       </c>
       <c r="AC8" t="n">
-        <v>285.4010935270667</v>
+        <v>369.4310476222917</v>
       </c>
       <c r="AD8" t="n">
-        <v>230597.1791397468</v>
+        <v>298491.3491939754</v>
       </c>
       <c r="AE8" t="n">
-        <v>315513.2337284076</v>
+        <v>408409.0324761379</v>
       </c>
       <c r="AF8" t="n">
         <v>1.401243572625544e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.95833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>285401.0935270667</v>
+        <v>369431.0476222917</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>227.0402703391032</v>
+        <v>285.2938425320666</v>
       </c>
       <c r="AB9" t="n">
-        <v>310.646514187628</v>
+        <v>390.3516216284124</v>
       </c>
       <c r="AC9" t="n">
-        <v>280.9988468687739</v>
+        <v>353.0970107221378</v>
       </c>
       <c r="AD9" t="n">
-        <v>227040.2703391032</v>
+        <v>285293.8425320666</v>
       </c>
       <c r="AE9" t="n">
-        <v>310646.5141876281</v>
+        <v>390351.6216284124</v>
       </c>
       <c r="AF9" t="n">
         <v>1.417211129051743e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.825</v>
       </c>
       <c r="AH9" t="n">
-        <v>280998.8468687739</v>
+        <v>353097.0107221378</v>
       </c>
     </row>
     <row r="10">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>222.3242107746534</v>
+        <v>280.5777829676168</v>
       </c>
       <c r="AB10" t="n">
-        <v>304.1937934336871</v>
+        <v>383.898900874468</v>
       </c>
       <c r="AC10" t="n">
-        <v>275.1619647271364</v>
+        <v>347.2601285804994</v>
       </c>
       <c r="AD10" t="n">
-        <v>222324.2107746534</v>
+        <v>280577.7829676167</v>
       </c>
       <c r="AE10" t="n">
-        <v>304193.7934336871</v>
+        <v>383898.900874468</v>
       </c>
       <c r="AF10" t="n">
         <v>1.438407356347981e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.65</v>
       </c>
       <c r="AH10" t="n">
-        <v>275161.9647271364</v>
+        <v>347260.1285804994</v>
       </c>
     </row>
     <row r="11">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>220.8442349667793</v>
+        <v>279.0978071597426</v>
       </c>
       <c r="AB11" t="n">
-        <v>302.1688252414301</v>
+        <v>381.87393268221</v>
       </c>
       <c r="AC11" t="n">
-        <v>273.3302566570871</v>
+        <v>345.4284205104498</v>
       </c>
       <c r="AD11" t="n">
-        <v>220844.2349667792</v>
+        <v>279097.8071597426</v>
       </c>
       <c r="AE11" t="n">
-        <v>302168.8252414301</v>
+        <v>381873.93268221</v>
       </c>
       <c r="AF11" t="n">
         <v>1.440257501425073e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.6375</v>
       </c>
       <c r="AH11" t="n">
-        <v>273330.2566570871</v>
+        <v>345428.4205104498</v>
       </c>
     </row>
     <row r="12">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>216.6905343300199</v>
+        <v>274.9441065229832</v>
       </c>
       <c r="AB12" t="n">
-        <v>296.4855487818797</v>
+        <v>376.1906562226567</v>
       </c>
       <c r="AC12" t="n">
-        <v>268.1893841263059</v>
+        <v>340.2875479796677</v>
       </c>
       <c r="AD12" t="n">
-        <v>216690.5343300199</v>
+        <v>274944.1065229832</v>
       </c>
       <c r="AE12" t="n">
-        <v>296485.5487818797</v>
+        <v>376190.6562226567</v>
       </c>
       <c r="AF12" t="n">
         <v>1.454254251138718e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.525</v>
       </c>
       <c r="AH12" t="n">
-        <v>268189.3841263059</v>
+        <v>340287.5479796677</v>
       </c>
     </row>
     <row r="13">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>215.2016362880708</v>
+        <v>273.3537232545489</v>
       </c>
       <c r="AB13" t="n">
-        <v>294.4483727953403</v>
+        <v>374.0146236720269</v>
       </c>
       <c r="AC13" t="n">
-        <v>266.3466333567266</v>
+        <v>338.3191929215891</v>
       </c>
       <c r="AD13" t="n">
-        <v>215201.6362880708</v>
+        <v>273353.7232545489</v>
       </c>
       <c r="AE13" t="n">
-        <v>294448.3727953403</v>
+        <v>374014.6236720269</v>
       </c>
       <c r="AF13" t="n">
         <v>1.459040496012062e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.4875</v>
       </c>
       <c r="AH13" t="n">
-        <v>266346.6333567266</v>
+        <v>338319.1929215891</v>
       </c>
     </row>
     <row r="14">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>214.7817531451483</v>
+        <v>272.9338401116263</v>
       </c>
       <c r="AB14" t="n">
-        <v>293.8738701552571</v>
+        <v>373.4401210319435</v>
       </c>
       <c r="AC14" t="n">
-        <v>265.8269604422932</v>
+        <v>337.7995200071556</v>
       </c>
       <c r="AD14" t="n">
-        <v>214781.7531451483</v>
+        <v>272933.8401116263</v>
       </c>
       <c r="AE14" t="n">
-        <v>293873.8701552571</v>
+        <v>373440.1210319435</v>
       </c>
       <c r="AF14" t="n">
         <v>1.462941888892015e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.45416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>265826.9604422932</v>
+        <v>337799.5200071557</v>
       </c>
     </row>
   </sheetData>
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.16561137771</v>
+        <v>265.3907546931267</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.2436642872779</v>
+        <v>363.1193387849098</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.9747952746899</v>
+        <v>328.46373873247</v>
       </c>
       <c r="AD2" t="n">
-        <v>201165.61137771</v>
+        <v>265390.7546931267</v>
       </c>
       <c r="AE2" t="n">
-        <v>275243.6642872779</v>
+        <v>363119.3387849097</v>
       </c>
       <c r="AF2" t="n">
         <v>2.253910693630394e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>248974.7952746899</v>
+        <v>328463.73873247</v>
       </c>
     </row>
     <row r="3">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.5854310083919</v>
+        <v>233.6552213794577</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.3484653387405</v>
+        <v>319.6973820320801</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.028190752107</v>
+        <v>289.185912589127</v>
       </c>
       <c r="AD3" t="n">
-        <v>178585.4310083919</v>
+        <v>233655.2213794577</v>
       </c>
       <c r="AE3" t="n">
-        <v>244348.4653387405</v>
+        <v>319697.3820320801</v>
       </c>
       <c r="AF3" t="n">
         <v>2.456576644618656e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.22916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>221028.190752107</v>
+        <v>289185.912589127</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.0589033045958</v>
+        <v>593.4976195053385</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.7837231405359</v>
+        <v>812.0496262742554</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.0513818443442</v>
+        <v>734.5487496614483</v>
       </c>
       <c r="AD2" t="n">
-        <v>488058.9033045958</v>
+        <v>593497.6195053386</v>
       </c>
       <c r="AE2" t="n">
-        <v>667783.7231405359</v>
+        <v>812049.6262742553</v>
       </c>
       <c r="AF2" t="n">
         <v>8.983115144666771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.7875</v>
       </c>
       <c r="AH2" t="n">
-        <v>604051.3818443442</v>
+        <v>734548.7496614483</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.1140385676072</v>
+        <v>356.1658252450541</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.5785823793933</v>
+        <v>487.321795027531</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.8251176751306</v>
+        <v>440.8124868705377</v>
       </c>
       <c r="AD3" t="n">
-        <v>289114.0385676072</v>
+        <v>356165.8252450541</v>
       </c>
       <c r="AE3" t="n">
-        <v>395578.5823793933</v>
+        <v>487321.795027531</v>
       </c>
       <c r="AF3" t="n">
         <v>1.302560659372356e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.3375</v>
       </c>
       <c r="AH3" t="n">
-        <v>357825.1176751306</v>
+        <v>440812.4868705377</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.6401241336805</v>
+        <v>310.7250652000541</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.3591664832212</v>
+        <v>425.1477424291138</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.5438355066905</v>
+        <v>384.5722385902826</v>
       </c>
       <c r="AD4" t="n">
-        <v>243640.1241336805</v>
+        <v>310725.0652000541</v>
       </c>
       <c r="AE4" t="n">
-        <v>333359.1664832212</v>
+        <v>425147.7424291138</v>
       </c>
       <c r="AF4" t="n">
         <v>1.446199075051148e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.9125</v>
       </c>
       <c r="AH4" t="n">
-        <v>301543.8355066905</v>
+        <v>384572.2385902826</v>
       </c>
     </row>
     <row r="5">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.7222683418933</v>
+        <v>288.1856112357499</v>
       </c>
       <c r="AB5" t="n">
-        <v>315.6843862933305</v>
+        <v>394.3082671446232</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.5559115314074</v>
+        <v>356.6760395434684</v>
       </c>
       <c r="AD5" t="n">
-        <v>230722.2683418932</v>
+        <v>288185.61123575</v>
       </c>
       <c r="AE5" t="n">
-        <v>315684.3862933305</v>
+        <v>394308.2671446232</v>
       </c>
       <c r="AF5" t="n">
         <v>1.527407439859251e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.225</v>
       </c>
       <c r="AH5" t="n">
-        <v>285555.9115314074</v>
+        <v>356676.0395434684</v>
       </c>
     </row>
     <row r="6">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>215.9942035544294</v>
+        <v>283.0449792020219</v>
       </c>
       <c r="AB6" t="n">
-        <v>295.5327982947717</v>
+        <v>387.2746276073971</v>
       </c>
       <c r="AC6" t="n">
-        <v>267.3275628084933</v>
+        <v>350.3136806918999</v>
       </c>
       <c r="AD6" t="n">
-        <v>215994.2035544294</v>
+        <v>283044.9792020218</v>
       </c>
       <c r="AE6" t="n">
-        <v>295532.7982947717</v>
+        <v>387274.627607397</v>
       </c>
       <c r="AF6" t="n">
         <v>1.556448841843606e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.99583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>267327.5628084933</v>
+        <v>350313.6806918999</v>
       </c>
     </row>
     <row r="7">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>210.5474585748823</v>
+        <v>268.0781212764432</v>
       </c>
       <c r="AB7" t="n">
-        <v>288.0803215203296</v>
+        <v>366.7963123024497</v>
       </c>
       <c r="AC7" t="n">
-        <v>260.5863399577847</v>
+        <v>331.7897870581606</v>
       </c>
       <c r="AD7" t="n">
-        <v>210547.4585748823</v>
+        <v>268078.1212764432</v>
       </c>
       <c r="AE7" t="n">
-        <v>288080.3215203296</v>
+        <v>366796.3123024497</v>
       </c>
       <c r="AF7" t="n">
         <v>1.587462190876281e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.7625</v>
       </c>
       <c r="AH7" t="n">
-        <v>260586.3399577847</v>
+        <v>331789.7870581606</v>
       </c>
     </row>
     <row r="8">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>205.6748221649722</v>
+        <v>263.205484866533</v>
       </c>
       <c r="AB8" t="n">
-        <v>281.4133654187469</v>
+        <v>360.1293562008636</v>
       </c>
       <c r="AC8" t="n">
-        <v>254.5556687894034</v>
+        <v>325.7591158897783</v>
       </c>
       <c r="AD8" t="n">
-        <v>205674.8221649722</v>
+        <v>263205.484866533</v>
       </c>
       <c r="AE8" t="n">
-        <v>281413.365418747</v>
+        <v>360129.3562008636</v>
       </c>
       <c r="AF8" t="n">
         <v>1.6108566535859e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.59166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>254555.6687894034</v>
+        <v>325759.1158897784</v>
       </c>
     </row>
     <row r="9">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>203.0238494697859</v>
+        <v>260.5545121713467</v>
       </c>
       <c r="AB9" t="n">
-        <v>277.7861876245338</v>
+        <v>356.5021784066485</v>
       </c>
       <c r="AC9" t="n">
-        <v>251.2746637530928</v>
+        <v>322.4781108534671</v>
       </c>
       <c r="AD9" t="n">
-        <v>203023.8494697859</v>
+        <v>260554.5121713467</v>
       </c>
       <c r="AE9" t="n">
-        <v>277786.1876245338</v>
+        <v>356502.1784066485</v>
       </c>
       <c r="AF9" t="n">
         <v>1.617937736168505e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.54166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>251274.6637530928</v>
+        <v>322478.1108534671</v>
       </c>
     </row>
     <row r="10">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>202.576161225648</v>
+        <v>260.0053387007236</v>
       </c>
       <c r="AB10" t="n">
-        <v>277.1736408182932</v>
+        <v>355.7507750363183</v>
       </c>
       <c r="AC10" t="n">
-        <v>250.7205775543248</v>
+        <v>321.7984203662</v>
       </c>
       <c r="AD10" t="n">
-        <v>202576.161225648</v>
+        <v>260005.3387007236</v>
       </c>
       <c r="AE10" t="n">
-        <v>277173.6408182932</v>
+        <v>355750.7750363183</v>
       </c>
       <c r="AF10" t="n">
         <v>1.625242903642964e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.49166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>250720.5775543248</v>
+        <v>321798.4203662</v>
       </c>
     </row>
   </sheetData>
@@ -13201,19 +13201,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.969457848245</v>
+        <v>701.7483776306235</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.7492633759675</v>
+        <v>960.1630892276677</v>
       </c>
       <c r="AC2" t="n">
-        <v>725.2314389415228</v>
+        <v>868.5264715891378</v>
       </c>
       <c r="AD2" t="n">
-        <v>585969.457848245</v>
+        <v>701748.3776306235</v>
       </c>
       <c r="AE2" t="n">
-        <v>801749.2633759675</v>
+        <v>960163.0892276677</v>
       </c>
       <c r="AF2" t="n">
         <v>7.663663140547541e-06</v>
@@ -13222,7 +13222,7 @@
         <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>725231.4389415229</v>
+        <v>868526.4715891378</v>
       </c>
     </row>
     <row r="3">
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.5898263771588</v>
+        <v>388.7643844258175</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.3309468221992</v>
+        <v>531.9245818455832</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.6425196167296</v>
+        <v>481.1584463150795</v>
       </c>
       <c r="AD3" t="n">
-        <v>311589.8263771588</v>
+        <v>388764.3844258175</v>
       </c>
       <c r="AE3" t="n">
-        <v>426330.9468221992</v>
+        <v>531924.5818455833</v>
       </c>
       <c r="AF3" t="n">
         <v>1.178569524705534e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>385642.5196167296</v>
+        <v>481158.4463150795</v>
       </c>
     </row>
     <row r="4">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>269.9248192002755</v>
+        <v>337.3809670077998</v>
       </c>
       <c r="AB4" t="n">
-        <v>369.3230458723995</v>
+        <v>461.6195232578631</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.0753727224873</v>
+        <v>417.5632038452019</v>
       </c>
       <c r="AD4" t="n">
-        <v>269924.8192002755</v>
+        <v>337380.9670077998</v>
       </c>
       <c r="AE4" t="n">
-        <v>369323.0458723995</v>
+        <v>461619.5232578631</v>
       </c>
       <c r="AF4" t="n">
         <v>1.323923612533539e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>334075.3727224873</v>
+        <v>417563.2038452019</v>
       </c>
     </row>
     <row r="5">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>246.2695631258632</v>
+        <v>313.7930307410951</v>
       </c>
       <c r="AB5" t="n">
-        <v>336.956880914985</v>
+        <v>429.3454682314533</v>
       </c>
       <c r="AC5" t="n">
-        <v>304.7981891225118</v>
+        <v>388.3693393335919</v>
       </c>
       <c r="AD5" t="n">
-        <v>246269.5631258631</v>
+        <v>313793.0307410951</v>
       </c>
       <c r="AE5" t="n">
-        <v>336956.880914985</v>
+        <v>429345.4682314533</v>
       </c>
       <c r="AF5" t="n">
         <v>1.400407952112419e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5875</v>
       </c>
       <c r="AH5" t="n">
-        <v>304798.1891225118</v>
+        <v>388369.3393335919</v>
       </c>
     </row>
     <row r="6">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.9080865453971</v>
+        <v>297.7473093382753</v>
       </c>
       <c r="AB6" t="n">
-        <v>328.2528280090561</v>
+        <v>407.3910043208473</v>
       </c>
       <c r="AC6" t="n">
-        <v>296.924838809707</v>
+        <v>368.5101786453305</v>
       </c>
       <c r="AD6" t="n">
-        <v>239908.0865453971</v>
+        <v>297747.3093382753</v>
       </c>
       <c r="AE6" t="n">
-        <v>328252.8280090562</v>
+        <v>407391.0043208473</v>
       </c>
       <c r="AF6" t="n">
         <v>1.435435072229296e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.27916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>296924.838809707</v>
+        <v>368510.1786453305</v>
       </c>
     </row>
     <row r="7">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>223.5967354554188</v>
+        <v>291.0860376518695</v>
       </c>
       <c r="AB7" t="n">
-        <v>305.9349178417363</v>
+        <v>398.2767585249407</v>
       </c>
       <c r="AC7" t="n">
-        <v>276.7369186653653</v>
+        <v>360.265783676261</v>
       </c>
       <c r="AD7" t="n">
-        <v>223596.7354554188</v>
+        <v>291086.0376518695</v>
       </c>
       <c r="AE7" t="n">
-        <v>305934.9178417362</v>
+        <v>398276.7585249407</v>
       </c>
       <c r="AF7" t="n">
         <v>1.471054438338486e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.98333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>276736.9186653653</v>
+        <v>360265.783676261</v>
       </c>
     </row>
     <row r="8">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>218.396357502047</v>
+        <v>276.3029001026295</v>
       </c>
       <c r="AB8" t="n">
-        <v>298.8195313014532</v>
+        <v>378.0498175440707</v>
       </c>
       <c r="AC8" t="n">
-        <v>270.300614629977</v>
+        <v>341.9692735539152</v>
       </c>
       <c r="AD8" t="n">
-        <v>218396.357502047</v>
+        <v>276302.9001026294</v>
       </c>
       <c r="AE8" t="n">
-        <v>298819.5313014532</v>
+        <v>378049.8175440707</v>
       </c>
       <c r="AF8" t="n">
         <v>1.497367081711309e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>270300.614629977</v>
+        <v>341969.2735539152</v>
       </c>
     </row>
     <row r="9">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>213.267878252539</v>
+        <v>271.1744208531213</v>
       </c>
       <c r="AB9" t="n">
-        <v>291.8025197397434</v>
+        <v>371.0328059823572</v>
       </c>
       <c r="AC9" t="n">
-        <v>263.9532968032769</v>
+        <v>335.6219557272141</v>
       </c>
       <c r="AD9" t="n">
-        <v>213267.878252539</v>
+        <v>271174.4208531213</v>
       </c>
       <c r="AE9" t="n">
-        <v>291802.5197397434</v>
+        <v>371032.8059823572</v>
       </c>
       <c r="AF9" t="n">
         <v>1.523891241509959e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.56666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>263953.2968032769</v>
+        <v>335621.9557272141</v>
       </c>
     </row>
     <row r="10">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>211.7205708262872</v>
+        <v>269.6271134268695</v>
       </c>
       <c r="AB10" t="n">
-        <v>289.6854254567608</v>
+        <v>368.9157116993736</v>
       </c>
       <c r="AC10" t="n">
-        <v>262.038255027301</v>
+        <v>333.7069139512379</v>
       </c>
       <c r="AD10" t="n">
-        <v>211720.5708262872</v>
+        <v>269627.1134268695</v>
       </c>
       <c r="AE10" t="n">
-        <v>289685.4254567608</v>
+        <v>368915.7116993736</v>
       </c>
       <c r="AF10" t="n">
         <v>1.523087479091818e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.57083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>262038.255027301</v>
+        <v>333706.9139512379</v>
       </c>
     </row>
     <row r="11">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>208.9955318898174</v>
+        <v>266.8005892639144</v>
       </c>
       <c r="AB11" t="n">
-        <v>285.9569069636516</v>
+        <v>365.0483366421732</v>
       </c>
       <c r="AC11" t="n">
-        <v>258.6655811061644</v>
+        <v>330.2086357416017</v>
       </c>
       <c r="AD11" t="n">
-        <v>208995.5318898174</v>
+        <v>266800.5892639144</v>
       </c>
       <c r="AE11" t="n">
-        <v>285956.9069636516</v>
+        <v>365048.3366421732</v>
       </c>
       <c r="AF11" t="n">
         <v>1.532605718254012e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>258665.5811061644</v>
+        <v>330208.6357416017</v>
       </c>
     </row>
     <row r="12">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>209.529850130605</v>
+        <v>267.4363927311872</v>
       </c>
       <c r="AB12" t="n">
-        <v>286.6879847531538</v>
+        <v>365.9182709957651</v>
       </c>
       <c r="AC12" t="n">
-        <v>259.3268858575109</v>
+        <v>330.9955447814474</v>
       </c>
       <c r="AD12" t="n">
-        <v>209529.850130605</v>
+        <v>267436.3927311872</v>
       </c>
       <c r="AE12" t="n">
-        <v>286687.9847531539</v>
+        <v>365918.2709957651</v>
       </c>
       <c r="AF12" t="n">
         <v>1.531082799988061e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.5125</v>
       </c>
       <c r="AH12" t="n">
-        <v>259326.885857511</v>
+        <v>330995.5447814474</v>
       </c>
     </row>
   </sheetData>
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>885.4152642552808</v>
+        <v>1031.823623488068</v>
       </c>
       <c r="AB2" t="n">
-        <v>1211.464226318694</v>
+        <v>1411.786602501943</v>
       </c>
       <c r="AC2" t="n">
-        <v>1095.843780859557</v>
+        <v>1277.047670614098</v>
       </c>
       <c r="AD2" t="n">
-        <v>885415.2642552808</v>
+        <v>1031823.623488068</v>
       </c>
       <c r="AE2" t="n">
-        <v>1211464.226318694</v>
+        <v>1411786.602501943</v>
       </c>
       <c r="AF2" t="n">
         <v>5.543807783965637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1095843.780859557</v>
+        <v>1277047.670614098</v>
       </c>
     </row>
     <row r="3">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>380.4058068031654</v>
+        <v>458.4411668096306</v>
       </c>
       <c r="AB3" t="n">
-        <v>520.4880071878514</v>
+        <v>627.2594294258083</v>
       </c>
       <c r="AC3" t="n">
-        <v>470.8133622913483</v>
+        <v>567.3946698455469</v>
       </c>
       <c r="AD3" t="n">
-        <v>380405.8068031654</v>
+        <v>458441.1668096306</v>
       </c>
       <c r="AE3" t="n">
-        <v>520488.0071878514</v>
+        <v>627259.4294258084</v>
       </c>
       <c r="AF3" t="n">
         <v>9.845488823882369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.275</v>
       </c>
       <c r="AH3" t="n">
-        <v>470813.3622913483</v>
+        <v>567394.6698455469</v>
       </c>
     </row>
     <row r="4">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.3832411858203</v>
+        <v>382.6557662155143</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.1530202001736</v>
+        <v>523.5665009170308</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.0998196758239</v>
+        <v>473.5980488997079</v>
       </c>
       <c r="AD4" t="n">
-        <v>314383.2411858203</v>
+        <v>382655.7662155143</v>
       </c>
       <c r="AE4" t="n">
-        <v>430153.0202001736</v>
+        <v>523566.5009170308</v>
       </c>
       <c r="AF4" t="n">
         <v>1.132411957647309e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.15</v>
       </c>
       <c r="AH4" t="n">
-        <v>389099.8196758239</v>
+        <v>473598.0488997079</v>
       </c>
     </row>
     <row r="5">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>284.2202171451755</v>
+        <v>342.764072616879</v>
       </c>
       <c r="AB5" t="n">
-        <v>388.8826400090587</v>
+        <v>468.9849258380638</v>
       </c>
       <c r="AC5" t="n">
-        <v>351.7682266468065</v>
+        <v>424.2256627405557</v>
       </c>
       <c r="AD5" t="n">
-        <v>284220.2171451754</v>
+        <v>342764.072616879</v>
       </c>
       <c r="AE5" t="n">
-        <v>388882.6400090586</v>
+        <v>468984.9258380638</v>
       </c>
       <c r="AF5" t="n">
         <v>1.216361266695568e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.175</v>
       </c>
       <c r="AH5" t="n">
-        <v>351768.2266468065</v>
+        <v>424225.6627405557</v>
       </c>
     </row>
     <row r="6">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.4535194661291</v>
+        <v>331.7591988847467</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.4687280825453</v>
+        <v>453.9275720969963</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.0660985953838</v>
+        <v>410.6053617074069</v>
       </c>
       <c r="AD6" t="n">
-        <v>263453.5194661291</v>
+        <v>331759.1988847467</v>
       </c>
       <c r="AE6" t="n">
-        <v>360468.7280825453</v>
+        <v>453927.5720969963</v>
       </c>
       <c r="AF6" t="n">
         <v>1.266315528011962e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.65416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>326066.0985953838</v>
+        <v>410605.3617074069</v>
       </c>
     </row>
     <row r="7">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>258.8965156222149</v>
+        <v>317.4062056751376</v>
       </c>
       <c r="AB7" t="n">
-        <v>354.2336343824811</v>
+        <v>434.2891735782385</v>
       </c>
       <c r="AC7" t="n">
-        <v>320.4260734870447</v>
+        <v>392.841224380614</v>
       </c>
       <c r="AD7" t="n">
-        <v>258896.5156222149</v>
+        <v>317406.2056751376</v>
       </c>
       <c r="AE7" t="n">
-        <v>354233.634382481</v>
+        <v>434289.1735782385</v>
       </c>
       <c r="AF7" t="n">
         <v>1.288696882966651e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.43333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>320426.0734870447</v>
+        <v>392841.224380614</v>
       </c>
     </row>
     <row r="8">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>252.3094951185259</v>
+        <v>310.8191851714517</v>
       </c>
       <c r="AB8" t="n">
-        <v>345.2209823303355</v>
+        <v>425.2765215262603</v>
       </c>
       <c r="AC8" t="n">
-        <v>312.2735762975231</v>
+        <v>384.6887271911399</v>
       </c>
       <c r="AD8" t="n">
-        <v>252309.4951185259</v>
+        <v>310819.1851714518</v>
       </c>
       <c r="AE8" t="n">
-        <v>345220.9823303355</v>
+        <v>425276.5215262603</v>
       </c>
       <c r="AF8" t="n">
         <v>1.319077072681779e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.14583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>312273.5762975231</v>
+        <v>384688.7271911399</v>
       </c>
     </row>
     <row r="9">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>248.6459704198709</v>
+        <v>307.1556604727966</v>
       </c>
       <c r="AB9" t="n">
-        <v>340.2083862143353</v>
+        <v>420.2639254102575</v>
       </c>
       <c r="AC9" t="n">
-        <v>307.7393753196095</v>
+        <v>380.1545262132257</v>
       </c>
       <c r="AD9" t="n">
-        <v>248645.9704198709</v>
+        <v>307155.6604727966</v>
       </c>
       <c r="AE9" t="n">
-        <v>340208.3862143353</v>
+        <v>420263.9254102575</v>
       </c>
       <c r="AF9" t="n">
         <v>1.334690182839174e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.00416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>307739.3753196095</v>
+        <v>380154.5262132257</v>
       </c>
     </row>
     <row r="10">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>235.0337714386797</v>
+        <v>293.6107812993098</v>
       </c>
       <c r="AB10" t="n">
-        <v>321.5835750404431</v>
+        <v>401.7312241671971</v>
       </c>
       <c r="AC10" t="n">
-        <v>290.892089984061</v>
+        <v>363.3905599659935</v>
       </c>
       <c r="AD10" t="n">
-        <v>235033.7714386797</v>
+        <v>293610.7812993098</v>
       </c>
       <c r="AE10" t="n">
-        <v>321583.5750404431</v>
+        <v>401731.2241671971</v>
       </c>
       <c r="AF10" t="n">
         <v>1.351187779532579e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.85833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>290892.089984061</v>
+        <v>363390.5599659935</v>
       </c>
     </row>
     <row r="11">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>233.8799820439974</v>
+        <v>292.4569919046274</v>
       </c>
       <c r="AB11" t="n">
-        <v>320.0049094890438</v>
+        <v>400.1525586157971</v>
       </c>
       <c r="AC11" t="n">
-        <v>289.4640900572157</v>
+        <v>361.9625600391479</v>
       </c>
       <c r="AD11" t="n">
-        <v>233879.9820439974</v>
+        <v>292456.9919046274</v>
       </c>
       <c r="AE11" t="n">
-        <v>320004.9094890438</v>
+        <v>400152.5586157971</v>
       </c>
       <c r="AF11" t="n">
         <v>1.352033810132241e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="AH11" t="n">
-        <v>289464.0900572157</v>
+        <v>361962.560039148</v>
       </c>
     </row>
     <row r="12">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>229.8082687351257</v>
+        <v>288.3852785957557</v>
       </c>
       <c r="AB12" t="n">
-        <v>314.4338117085348</v>
+        <v>394.5814608352853</v>
       </c>
       <c r="AC12" t="n">
-        <v>284.4246900297919</v>
+        <v>356.9231600117234</v>
       </c>
       <c r="AD12" t="n">
-        <v>229808.2687351257</v>
+        <v>288385.2785957557</v>
       </c>
       <c r="AE12" t="n">
-        <v>314433.8117085348</v>
+        <v>394581.4608352853</v>
       </c>
       <c r="AF12" t="n">
         <v>1.368339127143905e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.70833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>284424.6900297919</v>
+        <v>356923.1600117234</v>
       </c>
     </row>
     <row r="13">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>226.8017541466874</v>
+        <v>285.3787640073173</v>
       </c>
       <c r="AB13" t="n">
-        <v>310.3201658105731</v>
+        <v>390.4678149373214</v>
       </c>
       <c r="AC13" t="n">
-        <v>280.7036447227921</v>
+        <v>353.2021147047229</v>
       </c>
       <c r="AD13" t="n">
-        <v>226801.7541466874</v>
+        <v>285378.7640073173</v>
       </c>
       <c r="AE13" t="n">
-        <v>310320.1658105731</v>
+        <v>390467.8149373214</v>
       </c>
       <c r="AF13" t="n">
         <v>1.378068479040015e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.62916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>280703.6447227921</v>
+        <v>353202.1147047229</v>
       </c>
     </row>
     <row r="14">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>223.4575783474436</v>
+        <v>282.0345882080734</v>
       </c>
       <c r="AB14" t="n">
-        <v>305.7445169474262</v>
+        <v>385.8921660741722</v>
       </c>
       <c r="AC14" t="n">
-        <v>276.5646893651789</v>
+        <v>349.0631593471091</v>
       </c>
       <c r="AD14" t="n">
-        <v>223457.5783474435</v>
+        <v>282034.5882080735</v>
       </c>
       <c r="AE14" t="n">
-        <v>305744.5169474263</v>
+        <v>385892.1660741722</v>
       </c>
       <c r="AF14" t="n">
         <v>1.389989819307977e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.52916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>276564.6893651789</v>
+        <v>349063.1593471091</v>
       </c>
     </row>
     <row r="15">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>222.4470997809201</v>
+        <v>281.0241096415501</v>
       </c>
       <c r="AB15" t="n">
-        <v>304.3619355935415</v>
+        <v>384.5095847202867</v>
       </c>
       <c r="AC15" t="n">
-        <v>275.3140596352434</v>
+        <v>347.8125296171734</v>
       </c>
       <c r="AD15" t="n">
-        <v>222447.0997809201</v>
+        <v>281024.1096415501</v>
       </c>
       <c r="AE15" t="n">
-        <v>304361.9355935415</v>
+        <v>384509.5847202867</v>
       </c>
       <c r="AF15" t="n">
         <v>1.387951654681519e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.54583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>275314.0596352434</v>
+        <v>347812.5296171734</v>
       </c>
     </row>
     <row r="16">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>221.2257329347212</v>
+        <v>279.7012575688659</v>
       </c>
       <c r="AB16" t="n">
-        <v>302.6908075916705</v>
+        <v>382.6996001543256</v>
       </c>
       <c r="AC16" t="n">
-        <v>273.8024217444276</v>
+        <v>346.1752874378583</v>
       </c>
       <c r="AD16" t="n">
-        <v>221225.7329347212</v>
+        <v>279701.2575688658</v>
       </c>
       <c r="AE16" t="n">
-        <v>302690.8075916705</v>
+        <v>382699.6001543256</v>
       </c>
       <c r="AF16" t="n">
         <v>1.395142914778644e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.48333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>273802.4217444276</v>
+        <v>346175.2874378583</v>
       </c>
     </row>
     <row r="17">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>221.6889421757358</v>
+        <v>280.1644668098805</v>
       </c>
       <c r="AB17" t="n">
-        <v>303.3245909105758</v>
+        <v>383.3333834732312</v>
       </c>
       <c r="AC17" t="n">
-        <v>274.3757176728973</v>
+        <v>346.748583366328</v>
       </c>
       <c r="AD17" t="n">
-        <v>221688.9421757358</v>
+        <v>280164.4668098805</v>
       </c>
       <c r="AE17" t="n">
-        <v>303324.5909105758</v>
+        <v>383333.3834732312</v>
       </c>
       <c r="AF17" t="n">
         <v>1.395142914778644e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.48333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>274375.7176728973</v>
+        <v>346748.583366328</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>404.6511130367485</v>
+        <v>499.8143675100284</v>
       </c>
       <c r="AB2" t="n">
-        <v>553.6615048040602</v>
+        <v>683.8680678808875</v>
       </c>
       <c r="AC2" t="n">
-        <v>500.8208278543624</v>
+        <v>618.6006592971962</v>
       </c>
       <c r="AD2" t="n">
-        <v>404651.1130367485</v>
+        <v>499814.3675100284</v>
       </c>
       <c r="AE2" t="n">
-        <v>553661.5048040602</v>
+        <v>683868.0678808874</v>
       </c>
       <c r="AF2" t="n">
         <v>1.061222225068293e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.825</v>
       </c>
       <c r="AH2" t="n">
-        <v>500820.8278543624</v>
+        <v>618600.6592971962</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.9776318910554</v>
+        <v>324.6158258155011</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.9763771230525</v>
+        <v>444.1536939202762</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.2888070959905</v>
+        <v>401.7642887461488</v>
       </c>
       <c r="AD3" t="n">
-        <v>257977.6318910554</v>
+        <v>324615.825815501</v>
       </c>
       <c r="AE3" t="n">
-        <v>352976.3771230525</v>
+        <v>444153.6939202762</v>
       </c>
       <c r="AF3" t="n">
         <v>1.453139992051185e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.74583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>319288.8070959905</v>
+        <v>401764.2887461489</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.6369499669063</v>
+        <v>294.2409784725708</v>
       </c>
       <c r="AB4" t="n">
-        <v>311.4629175780353</v>
+        <v>402.59348774199</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.7373338654302</v>
+        <v>364.1705303154024</v>
       </c>
       <c r="AD4" t="n">
-        <v>227636.9499669063</v>
+        <v>294240.9784725708</v>
       </c>
       <c r="AE4" t="n">
-        <v>311462.9175780353</v>
+        <v>402593.48774199</v>
       </c>
       <c r="AF4" t="n">
         <v>1.592073042658699e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.54583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>281737.3338654301</v>
+        <v>364170.5303154024</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.9359274377779</v>
+        <v>276.9870595653125</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.926038808551</v>
+        <v>378.985914703899</v>
       </c>
       <c r="AC5" t="n">
-        <v>272.2060800170999</v>
+        <v>342.8160309146301</v>
       </c>
       <c r="AD5" t="n">
-        <v>219935.9274377779</v>
+        <v>276987.0595653125</v>
       </c>
       <c r="AE5" t="n">
-        <v>300926.038808551</v>
+        <v>378985.914703899</v>
       </c>
       <c r="AF5" t="n">
         <v>1.643849334810567e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.15</v>
       </c>
       <c r="AH5" t="n">
-        <v>272206.0800170999</v>
+        <v>342816.0309146301</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.4266799824677</v>
+        <v>259.5451319177066</v>
       </c>
       <c r="AB6" t="n">
-        <v>276.9691139867269</v>
+        <v>355.1210998129042</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.5355704765079</v>
+        <v>321.2288404623537</v>
       </c>
       <c r="AD6" t="n">
-        <v>202426.6799824677</v>
+        <v>259545.1319177066</v>
       </c>
       <c r="AE6" t="n">
-        <v>276969.113986727</v>
+        <v>355121.0998129041</v>
       </c>
       <c r="AF6" t="n">
         <v>1.695290039883673e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.78333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>250535.5704765079</v>
+        <v>321228.8404623537</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>196.984600366626</v>
+        <v>254.1030523018616</v>
       </c>
       <c r="AB7" t="n">
-        <v>269.5230205687279</v>
+        <v>347.6750063947326</v>
       </c>
       <c r="AC7" t="n">
-        <v>243.8001217636626</v>
+        <v>314.4933917494593</v>
       </c>
       <c r="AD7" t="n">
-        <v>196984.600366626</v>
+        <v>254103.0523018616</v>
       </c>
       <c r="AE7" t="n">
-        <v>269523.0205687279</v>
+        <v>347675.0063947326</v>
       </c>
       <c r="AF7" t="n">
         <v>1.727122871354822e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.56666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>243800.1217636626</v>
+        <v>314493.3917494593</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>195.6782071714262</v>
+        <v>252.7966591066618</v>
       </c>
       <c r="AB8" t="n">
-        <v>267.7355557650563</v>
+        <v>345.8875415910611</v>
       </c>
       <c r="AC8" t="n">
-        <v>242.1832500921302</v>
+        <v>312.8765200779269</v>
       </c>
       <c r="AD8" t="n">
-        <v>195678.2071714262</v>
+        <v>252796.6591066618</v>
       </c>
       <c r="AE8" t="n">
-        <v>267735.5557650563</v>
+        <v>345887.541591061</v>
       </c>
       <c r="AF8" t="n">
         <v>1.735704312368881e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.50833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>242183.2500921302</v>
+        <v>312876.5200779269</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.3725011938644</v>
+        <v>385.5126483353345</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.6653488018189</v>
+        <v>527.4754130701127</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.1358839337329</v>
+        <v>477.1338999630922</v>
       </c>
       <c r="AD2" t="n">
-        <v>310372.5011938644</v>
+        <v>385512.6483353344</v>
       </c>
       <c r="AE2" t="n">
-        <v>424665.3488018189</v>
+        <v>527475.4130701127</v>
       </c>
       <c r="AF2" t="n">
         <v>1.391425075222146e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>384135.8839337329</v>
+        <v>477133.8999630922</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.9103388802733</v>
+        <v>282.6827070420229</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.7862950646286</v>
+        <v>386.7789508557667</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.4614276059293</v>
+        <v>349.8653106337584</v>
       </c>
       <c r="AD3" t="n">
-        <v>216910.3388802733</v>
+        <v>282682.7070420228</v>
       </c>
       <c r="AE3" t="n">
-        <v>296786.2950646286</v>
+        <v>386778.9508557667</v>
       </c>
       <c r="AF3" t="n">
         <v>1.763362128630204e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.87916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>268461.4276059293</v>
+        <v>349865.3106337584</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.5632009193507</v>
+        <v>246.9688011312308</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.7369785528203</v>
+        <v>337.9136092021321</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.8526072664631</v>
+        <v>305.6636086047105</v>
       </c>
       <c r="AD4" t="n">
-        <v>190563.2009193507</v>
+        <v>246968.8011312308</v>
       </c>
       <c r="AE4" t="n">
-        <v>260736.9785528204</v>
+        <v>337913.6092021321</v>
       </c>
       <c r="AF4" t="n">
         <v>1.917686296620563e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>235852.607266463</v>
+        <v>305663.6086047105</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.6252750333846</v>
+        <v>242.0308752452647</v>
       </c>
       <c r="AB5" t="n">
-        <v>253.9806905097297</v>
+        <v>331.1573211590415</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.741129871693</v>
+        <v>299.5521312099404</v>
       </c>
       <c r="AD5" t="n">
-        <v>185625.2750333846</v>
+        <v>242030.8752452647</v>
       </c>
       <c r="AE5" t="n">
-        <v>253980.6905097297</v>
+        <v>331157.3211590415</v>
       </c>
       <c r="AF5" t="n">
         <v>1.947504495098389e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.6625</v>
       </c>
       <c r="AH5" t="n">
-        <v>229741.129871693</v>
+        <v>299552.1312099404</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.0274269197386</v>
+        <v>242.4330271316187</v>
       </c>
       <c r="AB6" t="n">
-        <v>254.5309324623281</v>
+        <v>331.7075631116398</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.2388575046049</v>
+        <v>300.0498588428524</v>
       </c>
       <c r="AD6" t="n">
-        <v>186027.4269197386</v>
+        <v>242433.0271316187</v>
       </c>
       <c r="AE6" t="n">
-        <v>254530.9324623281</v>
+        <v>331707.5631116398</v>
       </c>
       <c r="AF6" t="n">
         <v>1.94804961755685e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.65833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>230238.8575046049</v>
+        <v>300049.8588428524</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.867498200033</v>
+        <v>324.2810721224737</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.8797344131547</v>
+        <v>443.6956691491857</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.2512123920859</v>
+        <v>401.3499772163695</v>
       </c>
       <c r="AD2" t="n">
-        <v>249867.498200033</v>
+        <v>324281.0721224737</v>
       </c>
       <c r="AE2" t="n">
-        <v>341879.7344131547</v>
+        <v>443695.6691491857</v>
       </c>
       <c r="AF2" t="n">
         <v>1.719290758794129e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>309251.2123920859</v>
+        <v>401349.9772163695</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.6028983330189</v>
+        <v>250.3713830312276</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.2642707730703</v>
+        <v>342.5691718690245</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.8523824748175</v>
+        <v>309.8748509047994</v>
       </c>
       <c r="AD3" t="n">
-        <v>194602.8983330189</v>
+        <v>250371.3830312276</v>
       </c>
       <c r="AE3" t="n">
-        <v>266264.2707730703</v>
+        <v>342569.1718690245</v>
       </c>
       <c r="AF3" t="n">
         <v>2.078404830546244e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.275</v>
       </c>
       <c r="AH3" t="n">
-        <v>240852.3824748175</v>
+        <v>309874.8509047994</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.6786417192878</v>
+        <v>233.5144462252008</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.1077562286688</v>
+        <v>319.5047672554645</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.9058931781539</v>
+        <v>289.011680696455</v>
       </c>
       <c r="AD4" t="n">
-        <v>177678.6417192878</v>
+        <v>233514.4462252008</v>
       </c>
       <c r="AE4" t="n">
-        <v>243107.7562286688</v>
+        <v>319504.7672554645</v>
       </c>
       <c r="AF4" t="n">
         <v>2.162581756672932e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.79583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>219905.893178154</v>
+        <v>289011.680696455</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.1422589405257</v>
+        <v>233.9780634464388</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.7420977641146</v>
+        <v>320.1391087909102</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.4796940477609</v>
+        <v>289.5854815660619</v>
       </c>
       <c r="AD5" t="n">
-        <v>178142.2589405258</v>
+        <v>233978.0634464388</v>
       </c>
       <c r="AE5" t="n">
-        <v>243742.0977641146</v>
+        <v>320139.1087909102</v>
       </c>
       <c r="AF5" t="n">
         <v>2.163377611247221e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.79166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>220479.6940477609</v>
+        <v>289585.4815660619</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.9286407608474</v>
+        <v>237.7184835073884</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.9768394789671</v>
+        <v>325.2569165339858</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.2646639217553</v>
+        <v>294.2148529210282</v>
       </c>
       <c r="AD2" t="n">
-        <v>173928.6407608474</v>
+        <v>237718.4835073884</v>
       </c>
       <c r="AE2" t="n">
-        <v>237976.8394789671</v>
+        <v>325256.9165339858</v>
       </c>
       <c r="AF2" t="n">
         <v>2.647670810848309e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.74166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215264.6639217553</v>
+        <v>294214.8529210282</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.8121974903004</v>
+        <v>237.6020402368414</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.8175166590903</v>
+        <v>325.0975937141089</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.1205466481964</v>
+        <v>294.0707356474693</v>
       </c>
       <c r="AD3" t="n">
-        <v>173812.1974903004</v>
+        <v>237602.0402368414</v>
       </c>
       <c r="AE3" t="n">
-        <v>237817.5166590903</v>
+        <v>325097.5937141089</v>
       </c>
       <c r="AF3" t="n">
         <v>2.664998075481995e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>215120.5466481964</v>
+        <v>294070.7356474694</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.3017346615442</v>
+        <v>649.678626130589</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.0552050928499</v>
+        <v>888.9189580700092</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.2843223612122</v>
+        <v>804.0817803174002</v>
       </c>
       <c r="AD2" t="n">
-        <v>534301.7346615442</v>
+        <v>649678.6261305891</v>
       </c>
       <c r="AE2" t="n">
-        <v>731055.2050928499</v>
+        <v>888918.9580700092</v>
       </c>
       <c r="AF2" t="n">
         <v>8.299681606379307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>661284.3223612121</v>
+        <v>804081.7803174002</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.0612011381592</v>
+        <v>376.9905172571159</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.5569731631499</v>
+        <v>515.8150573590054</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.373991864789</v>
+        <v>466.5863922356411</v>
       </c>
       <c r="AD3" t="n">
-        <v>300061.2011381591</v>
+        <v>376990.5172571159</v>
       </c>
       <c r="AE3" t="n">
-        <v>410556.9731631499</v>
+        <v>515815.0573590054</v>
       </c>
       <c r="AF3" t="n">
         <v>1.238492921641623e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.63333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>371373.991864789</v>
+        <v>466586.3922356411</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.7744919207764</v>
+        <v>319.463948685156</v>
       </c>
       <c r="AB4" t="n">
-        <v>358.1714085215262</v>
+        <v>437.10466834576</v>
       </c>
       <c r="AC4" t="n">
-        <v>323.9880319889601</v>
+        <v>395.388012279095</v>
       </c>
       <c r="AD4" t="n">
-        <v>261774.4919207764</v>
+        <v>319463.9486851559</v>
       </c>
       <c r="AE4" t="n">
-        <v>358171.4085215263</v>
+        <v>437104.66834576</v>
       </c>
       <c r="AF4" t="n">
         <v>1.381685374071792e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.11666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>323988.0319889601</v>
+        <v>395388.012279095</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.9030450830559</v>
+        <v>296.5583364286576</v>
       </c>
       <c r="AB5" t="n">
-        <v>326.8776859409816</v>
+        <v>405.7641991321256</v>
       </c>
       <c r="AC5" t="n">
-        <v>295.6809383705851</v>
+        <v>367.038633460585</v>
       </c>
       <c r="AD5" t="n">
-        <v>238903.0450830559</v>
+        <v>296558.3364286576</v>
       </c>
       <c r="AE5" t="n">
-        <v>326877.6859409816</v>
+        <v>405764.1991321256</v>
       </c>
       <c r="AF5" t="n">
         <v>1.458805731957179e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.425</v>
       </c>
       <c r="AH5" t="n">
-        <v>295680.9383705851</v>
+        <v>367038.633460585</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.2135271826093</v>
+        <v>290.8688185282109</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.0930365457796</v>
+        <v>397.9795497369195</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.6392449878346</v>
+        <v>359.9969400778334</v>
       </c>
       <c r="AD6" t="n">
-        <v>233213.5271826093</v>
+        <v>290868.8185282109</v>
       </c>
       <c r="AE6" t="n">
-        <v>319093.0365457796</v>
+        <v>397979.5497369195</v>
       </c>
       <c r="AF6" t="n">
         <v>1.489688672791146e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>288639.2449878346</v>
+        <v>359996.9400778334</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>217.2073593398596</v>
+        <v>274.9299704931654</v>
       </c>
       <c r="AB7" t="n">
-        <v>297.1926915610523</v>
+        <v>376.1713146830224</v>
       </c>
       <c r="AC7" t="n">
-        <v>268.8290381911155</v>
+        <v>340.2700523694301</v>
       </c>
       <c r="AD7" t="n">
-        <v>217207.3593398596</v>
+        <v>274929.9704931654</v>
       </c>
       <c r="AE7" t="n">
-        <v>297192.6915610523</v>
+        <v>376171.3146830224</v>
       </c>
       <c r="AF7" t="n">
         <v>1.526922190190972e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.87083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>268829.0381911155</v>
+        <v>340270.0523694301</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>212.497048069805</v>
+        <v>270.2196592231107</v>
       </c>
       <c r="AB8" t="n">
-        <v>290.7478358770997</v>
+        <v>369.7264589990666</v>
       </c>
       <c r="AC8" t="n">
-        <v>262.9992704882255</v>
+        <v>334.4402846665392</v>
       </c>
       <c r="AD8" t="n">
-        <v>212497.048069805</v>
+        <v>270219.6592231108</v>
       </c>
       <c r="AE8" t="n">
-        <v>290747.8358770997</v>
+        <v>369726.4589990666</v>
       </c>
       <c r="AF8" t="n">
         <v>1.548888225572878e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="AH8" t="n">
-        <v>262999.2704882255</v>
+        <v>334440.2846665392</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>209.055954019849</v>
+        <v>266.7785651731548</v>
       </c>
       <c r="AB9" t="n">
-        <v>286.039579187597</v>
+        <v>365.0182023095614</v>
       </c>
       <c r="AC9" t="n">
-        <v>258.7403632090878</v>
+        <v>330.1813773874007</v>
       </c>
       <c r="AD9" t="n">
-        <v>209055.954019849</v>
+        <v>266778.5651731548</v>
       </c>
       <c r="AE9" t="n">
-        <v>286039.579187597</v>
+        <v>365018.2023095614</v>
       </c>
       <c r="AF9" t="n">
         <v>1.559849494713948e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.62083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>258740.3632090878</v>
+        <v>330181.3773874007</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>205.9898119504813</v>
+        <v>263.6109378773018</v>
       </c>
       <c r="AB10" t="n">
-        <v>281.844348339649</v>
+        <v>360.6841148975219</v>
       </c>
       <c r="AC10" t="n">
-        <v>254.945519305223</v>
+        <v>326.2609291950363</v>
       </c>
       <c r="AD10" t="n">
-        <v>205989.8119504813</v>
+        <v>263610.9378773018</v>
       </c>
       <c r="AE10" t="n">
-        <v>281844.348339649</v>
+        <v>360684.1148975219</v>
       </c>
       <c r="AF10" t="n">
         <v>1.575856427427891e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>254945.519305223</v>
+        <v>326260.9291950363</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>206.2892645620367</v>
+        <v>264.0118757153424</v>
       </c>
       <c r="AB11" t="n">
-        <v>282.2540726136957</v>
+        <v>361.2326957356582</v>
       </c>
       <c r="AC11" t="n">
-        <v>255.3161400696065</v>
+        <v>326.7571542479189</v>
       </c>
       <c r="AD11" t="n">
-        <v>206289.2645620367</v>
+        <v>264011.8757153424</v>
       </c>
       <c r="AE11" t="n">
-        <v>282254.0726136956</v>
+        <v>361232.6957356582</v>
       </c>
       <c r="AF11" t="n">
         <v>1.574725502833971e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.50833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>255316.1400696065</v>
+        <v>326757.1542479189</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>801.3589907576369</v>
+        <v>937.5661086325906</v>
       </c>
       <c r="AB2" t="n">
-        <v>1096.454724618149</v>
+        <v>1282.819312328605</v>
       </c>
       <c r="AC2" t="n">
-        <v>991.8106245844637</v>
+        <v>1160.388837608175</v>
       </c>
       <c r="AD2" t="n">
-        <v>801358.9907576368</v>
+        <v>937566.1086325906</v>
       </c>
       <c r="AE2" t="n">
-        <v>1096454.724618149</v>
+        <v>1282819.312328605</v>
       </c>
       <c r="AF2" t="n">
         <v>6.020168202699589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>991810.6245844637</v>
+        <v>1160388.837608175</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.681778466033</v>
+        <v>445.2404067651107</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.3959891036104</v>
+        <v>609.1975671564653</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.6887227751458</v>
+        <v>551.0566063612069</v>
       </c>
       <c r="AD3" t="n">
-        <v>357681.778466033</v>
+        <v>445240.4067651107</v>
       </c>
       <c r="AE3" t="n">
-        <v>489395.9891036104</v>
+        <v>609197.5671564653</v>
       </c>
       <c r="AF3" t="n">
         <v>1.027598731210947e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>442688.7227751458</v>
+        <v>551056.606361207</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.9577952892452</v>
+        <v>372.780094795363</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.5742681342899</v>
+        <v>510.0541715961058</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.0577064035954</v>
+        <v>461.3753173244987</v>
       </c>
       <c r="AD4" t="n">
-        <v>294957.7952892452</v>
+        <v>372780.094795363</v>
       </c>
       <c r="AE4" t="n">
-        <v>403574.2681342899</v>
+        <v>510054.1715961059</v>
       </c>
       <c r="AF4" t="n">
         <v>1.177660768149689e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.90416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>365057.7064035954</v>
+        <v>461375.3173244987</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.4300761531258</v>
+        <v>335.8148945219616</v>
       </c>
       <c r="AB5" t="n">
-        <v>379.5920695438575</v>
+        <v>459.4767537924974</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.3643351874067</v>
+        <v>415.6249372902148</v>
       </c>
       <c r="AD5" t="n">
-        <v>277430.0761531257</v>
+        <v>335814.8945219616</v>
       </c>
       <c r="AE5" t="n">
-        <v>379592.0695438575</v>
+        <v>459476.7537924974</v>
       </c>
       <c r="AF5" t="n">
         <v>1.255757485645047e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.04166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>343364.3351874066</v>
+        <v>415624.9372902148</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>254.6691764745149</v>
+        <v>313.0198294245732</v>
       </c>
       <c r="AB6" t="n">
-        <v>348.4496024633924</v>
+        <v>428.2875400789535</v>
       </c>
       <c r="AC6" t="n">
-        <v>315.1940614564788</v>
+        <v>387.4123783591552</v>
       </c>
       <c r="AD6" t="n">
-        <v>254669.1764745149</v>
+        <v>313019.8294245732</v>
       </c>
       <c r="AE6" t="n">
-        <v>348449.6024633924</v>
+        <v>428287.5400789535</v>
       </c>
       <c r="AF6" t="n">
         <v>1.3184864041768e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.42083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>315194.0614564788</v>
+        <v>387412.3783591553</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>252.0692982255594</v>
+        <v>310.4199511756177</v>
       </c>
       <c r="AB7" t="n">
-        <v>344.8923343446399</v>
+        <v>424.7302719601992</v>
       </c>
       <c r="AC7" t="n">
-        <v>311.9762940143218</v>
+        <v>384.1946109169976</v>
       </c>
       <c r="AD7" t="n">
-        <v>252069.2982255594</v>
+        <v>310419.9511756176</v>
       </c>
       <c r="AE7" t="n">
-        <v>344892.3343446399</v>
+        <v>424730.2719601992</v>
       </c>
       <c r="AF7" t="n">
         <v>1.33188901145708e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.29583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>311976.2940143218</v>
+        <v>384194.6109169977</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>246.8457235874799</v>
+        <v>305.1963765375381</v>
       </c>
       <c r="AB8" t="n">
-        <v>337.7452090769744</v>
+        <v>417.58314669253</v>
       </c>
       <c r="AC8" t="n">
-        <v>305.5112803511466</v>
+        <v>377.7295972538215</v>
       </c>
       <c r="AD8" t="n">
-        <v>246845.7235874799</v>
+        <v>305196.3765375381</v>
       </c>
       <c r="AE8" t="n">
-        <v>337745.2090769744</v>
+        <v>417583.14669253</v>
       </c>
       <c r="AF8" t="n">
         <v>1.356139476829318e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.075</v>
       </c>
       <c r="AH8" t="n">
-        <v>305511.2803511466</v>
+        <v>377729.5972538214</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>232.5111622472037</v>
+        <v>300.5971329603644</v>
       </c>
       <c r="AB9" t="n">
-        <v>318.1320298550041</v>
+        <v>411.2902587259346</v>
       </c>
       <c r="AC9" t="n">
-        <v>287.7699554268452</v>
+        <v>372.0372936826342</v>
       </c>
       <c r="AD9" t="n">
-        <v>232511.1622472037</v>
+        <v>300597.1329603645</v>
       </c>
       <c r="AE9" t="n">
-        <v>318132.0298550042</v>
+        <v>411290.2587259345</v>
       </c>
       <c r="AF9" t="n">
         <v>1.377088420173568e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.89166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>287769.9554268452</v>
+        <v>372037.2936826342</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>228.9859301348828</v>
+        <v>287.4039028926451</v>
       </c>
       <c r="AB10" t="n">
-        <v>313.3086517566645</v>
+        <v>393.238699303049</v>
       </c>
       <c r="AC10" t="n">
-        <v>283.4069137645558</v>
+        <v>355.7085497555461</v>
       </c>
       <c r="AD10" t="n">
-        <v>228985.9301348828</v>
+        <v>287403.9028926452</v>
       </c>
       <c r="AE10" t="n">
-        <v>313308.6517566645</v>
+        <v>393238.699303049</v>
       </c>
       <c r="AF10" t="n">
         <v>1.391237800293513e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>283406.9137645558</v>
+        <v>355708.5497555461</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>226.7489990448842</v>
+        <v>285.1669718026465</v>
       </c>
       <c r="AB11" t="n">
-        <v>310.2479839528952</v>
+        <v>390.1780314992782</v>
       </c>
       <c r="AC11" t="n">
-        <v>280.638351800303</v>
+        <v>352.9399877912929</v>
       </c>
       <c r="AD11" t="n">
-        <v>226748.9990448842</v>
+        <v>285166.9718026465</v>
       </c>
       <c r="AE11" t="n">
-        <v>310247.9839528952</v>
+        <v>390178.0314992782</v>
       </c>
       <c r="AF11" t="n">
         <v>1.397880148183153e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.71666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>280638.351800303</v>
+        <v>352939.987791293</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>223.7916560387163</v>
+        <v>282.2096287964786</v>
       </c>
       <c r="AB12" t="n">
-        <v>306.2016167830929</v>
+        <v>386.1316643294738</v>
       </c>
       <c r="AC12" t="n">
-        <v>276.9781642340733</v>
+        <v>349.2798002250627</v>
       </c>
       <c r="AD12" t="n">
-        <v>223791.6560387163</v>
+        <v>282209.6287964786</v>
       </c>
       <c r="AE12" t="n">
-        <v>306201.6167830929</v>
+        <v>386131.6643294738</v>
       </c>
       <c r="AF12" t="n">
         <v>1.407430979764116e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.6375</v>
       </c>
       <c r="AH12" t="n">
-        <v>276978.1642340734</v>
+        <v>349279.8002250626</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>220.8019011901941</v>
+        <v>279.2198739479563</v>
       </c>
       <c r="AB13" t="n">
-        <v>302.1109023006719</v>
+        <v>382.0409498470507</v>
       </c>
       <c r="AC13" t="n">
-        <v>273.2778618004995</v>
+        <v>345.5794977914882</v>
       </c>
       <c r="AD13" t="n">
-        <v>220801.9011901941</v>
+        <v>279219.8739479563</v>
       </c>
       <c r="AE13" t="n">
-        <v>302110.9023006719</v>
+        <v>382040.9498470507</v>
       </c>
       <c r="AF13" t="n">
         <v>1.416431557673747e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH13" t="n">
-        <v>273277.8618004995</v>
+        <v>345579.4977914882</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>218.7286456327119</v>
+        <v>277.1466183904742</v>
       </c>
       <c r="AB14" t="n">
-        <v>299.2741825813463</v>
+        <v>379.2042301277237</v>
       </c>
       <c r="AC14" t="n">
-        <v>270.7118746298244</v>
+        <v>343.0135106208127</v>
       </c>
       <c r="AD14" t="n">
-        <v>218728.6456327119</v>
+        <v>277146.6183904742</v>
       </c>
       <c r="AE14" t="n">
-        <v>299274.1825813464</v>
+        <v>379204.2301277238</v>
       </c>
       <c r="AF14" t="n">
         <v>1.421541056050393e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.52083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>270711.8746298244</v>
+        <v>343013.5106208127</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>218.4874795202262</v>
+        <v>276.8039670515032</v>
       </c>
       <c r="AB15" t="n">
-        <v>298.9442084667456</v>
+        <v>378.7353994490335</v>
       </c>
       <c r="AC15" t="n">
-        <v>270.4133927815994</v>
+        <v>342.5894244840886</v>
       </c>
       <c r="AD15" t="n">
-        <v>218487.4795202262</v>
+        <v>276803.9670515032</v>
       </c>
       <c r="AE15" t="n">
-        <v>298944.2084667456</v>
+        <v>378735.3994490335</v>
       </c>
       <c r="AF15" t="n">
         <v>1.425825173920043e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.4875</v>
       </c>
       <c r="AH15" t="n">
-        <v>270413.3927815994</v>
+        <v>342589.4244840886</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.1147934241195</v>
+        <v>239.3224789282787</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.9680299991031</v>
+        <v>327.4515738321305</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.9703794168127</v>
+        <v>296.2000552068596</v>
       </c>
       <c r="AD2" t="n">
-        <v>176114.7934241195</v>
+        <v>239322.4789282787</v>
       </c>
       <c r="AE2" t="n">
-        <v>240968.0299991031</v>
+        <v>327451.5738321305</v>
       </c>
       <c r="AF2" t="n">
         <v>2.923695443524331e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>217970.3794168127</v>
+        <v>296200.0552068596</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.1650551673598</v>
+        <v>418.6767636625523</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.5335678537332</v>
+        <v>572.8520187583202</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.7219431322735</v>
+        <v>518.1798260908834</v>
       </c>
       <c r="AD2" t="n">
-        <v>343165.0551673598</v>
+        <v>418676.7636625523</v>
       </c>
       <c r="AE2" t="n">
-        <v>469533.5678537332</v>
+        <v>572852.0187583202</v>
       </c>
       <c r="AF2" t="n">
         <v>1.264588822371413e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.12916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>424721.9431322735</v>
+        <v>518179.8260908833</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.390277382945</v>
+        <v>294.0157701571115</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.8078504350901</v>
+        <v>402.2853477892888</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.8086450603428</v>
+        <v>363.8917988073101</v>
       </c>
       <c r="AD3" t="n">
-        <v>237390.277382945</v>
+        <v>294015.7701571115</v>
       </c>
       <c r="AE3" t="n">
-        <v>324807.8504350901</v>
+        <v>402285.3477892888</v>
       </c>
       <c r="AF3" t="n">
         <v>1.641828970517479e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>293808.6450603429</v>
+        <v>363891.7988073101</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.9241828393263</v>
+        <v>267.5155101947116</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.5957722788431</v>
+        <v>366.0265229997754</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.0525968193456</v>
+        <v>331.0934653661275</v>
       </c>
       <c r="AD4" t="n">
-        <v>210924.1828393263</v>
+        <v>267515.5101947116</v>
       </c>
       <c r="AE4" t="n">
-        <v>288595.7722788432</v>
+        <v>366026.5229997754</v>
       </c>
       <c r="AF4" t="n">
         <v>1.778648051393936e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.17916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>261052.5968193456</v>
+        <v>331093.4653661276</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.3929009828905</v>
+        <v>250.0515481459769</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.6086990173098</v>
+        <v>342.1315596689054</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.3548161638167</v>
+        <v>309.479003798867</v>
       </c>
       <c r="AD5" t="n">
-        <v>193392.9009828905</v>
+        <v>250051.5481459769</v>
       </c>
       <c r="AE5" t="n">
-        <v>264608.6990173098</v>
+        <v>342131.5596689055</v>
       </c>
       <c r="AF5" t="n">
         <v>1.837336783274452e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.7875</v>
       </c>
       <c r="AH5" t="n">
-        <v>239354.8161638167</v>
+        <v>309479.003798867</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>189.4177683623919</v>
+        <v>246.0764155254782</v>
       </c>
       <c r="AB6" t="n">
-        <v>259.1697471954722</v>
+        <v>336.6926078470678</v>
       </c>
       <c r="AC6" t="n">
-        <v>234.4349502702366</v>
+        <v>304.559137905287</v>
       </c>
       <c r="AD6" t="n">
-        <v>189417.7683623919</v>
+        <v>246076.4155254783</v>
       </c>
       <c r="AE6" t="n">
-        <v>259169.7471954722</v>
+        <v>336692.6078470678</v>
       </c>
       <c r="AF6" t="n">
         <v>1.86441989160904e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.61666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>234434.9502702366</v>
+        <v>304559.137905287</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.4238963803585</v>
+        <v>246.0825435434449</v>
       </c>
       <c r="AB7" t="n">
-        <v>259.1781318200031</v>
+        <v>336.7009924715988</v>
       </c>
       <c r="AC7" t="n">
-        <v>234.4425346779703</v>
+        <v>304.5667223130206</v>
       </c>
       <c r="AD7" t="n">
-        <v>189423.8963803585</v>
+        <v>246082.5435434449</v>
       </c>
       <c r="AE7" t="n">
-        <v>259178.1318200031</v>
+        <v>336700.9924715988</v>
       </c>
       <c r="AF7" t="n">
         <v>1.869930082556192e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>234442.5346779703</v>
+        <v>304566.7223130206</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.7365808034859</v>
+        <v>540.2860602947078</v>
       </c>
       <c r="AB2" t="n">
-        <v>608.5082102485377</v>
+        <v>739.2432234339583</v>
       </c>
       <c r="AC2" t="n">
-        <v>550.4330407090536</v>
+        <v>668.6908877238011</v>
       </c>
       <c r="AD2" t="n">
-        <v>444736.5808034859</v>
+        <v>540286.0602947078</v>
       </c>
       <c r="AE2" t="n">
-        <v>608508.2102485377</v>
+        <v>739243.2234339583</v>
       </c>
       <c r="AF2" t="n">
         <v>9.75325639438206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>550433.0407090535</v>
+        <v>668690.8877238011</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.9284531893609</v>
+        <v>344.7457690255119</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.2739709916776</v>
+        <v>471.6963702906306</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.9811569181015</v>
+        <v>426.6783307401058</v>
       </c>
       <c r="AD3" t="n">
-        <v>277928.4531893609</v>
+        <v>344745.7690255119</v>
       </c>
       <c r="AE3" t="n">
-        <v>380273.9709916776</v>
+        <v>471696.3702906306</v>
       </c>
       <c r="AF3" t="n">
         <v>1.375666935793436e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>343981.1569181015</v>
+        <v>426678.3307401058</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.6525035193586</v>
+        <v>302.5029737444361</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.4301515697603</v>
+        <v>413.8979141664626</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.657870437598</v>
+        <v>374.3960781477856</v>
       </c>
       <c r="AD4" t="n">
-        <v>235652.5035193586</v>
+        <v>302502.9737444361</v>
       </c>
       <c r="AE4" t="n">
-        <v>322430.1515697603</v>
+        <v>413897.9141664626</v>
       </c>
       <c r="AF4" t="n">
         <v>1.514992557487186e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>291657.870437598</v>
+        <v>374396.0781477856</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.0539583463761</v>
+        <v>280.3163262334076</v>
       </c>
       <c r="AB5" t="n">
-        <v>305.1922662555083</v>
+        <v>383.541164236066</v>
       </c>
       <c r="AC5" t="n">
-        <v>276.0651447042088</v>
+        <v>346.93653382478</v>
       </c>
       <c r="AD5" t="n">
-        <v>223053.9583463761</v>
+        <v>280316.3262334076</v>
       </c>
       <c r="AE5" t="n">
-        <v>305192.2662555084</v>
+        <v>383541.164236066</v>
       </c>
       <c r="AF5" t="n">
         <v>1.599930270380219e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.05416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>276065.1447042088</v>
+        <v>346936.53382478</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.252522149888</v>
+        <v>266.5822098446237</v>
       </c>
       <c r="AB6" t="n">
-        <v>286.3085323750901</v>
+        <v>364.7495402864795</v>
       </c>
       <c r="AC6" t="n">
-        <v>258.9836478818447</v>
+        <v>329.9383560907322</v>
       </c>
       <c r="AD6" t="n">
-        <v>209252.522149888</v>
+        <v>266582.2098446237</v>
       </c>
       <c r="AE6" t="n">
-        <v>286308.5323750901</v>
+        <v>364749.5402864795</v>
       </c>
       <c r="AF6" t="n">
         <v>1.623583224760786e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.87916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>258983.6478818447</v>
+        <v>329938.3560907322</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>203.6173056526642</v>
+        <v>260.9469933473998</v>
       </c>
       <c r="AB7" t="n">
-        <v>278.5981805553864</v>
+        <v>357.0391884667718</v>
       </c>
       <c r="AC7" t="n">
-        <v>252.0091612182643</v>
+        <v>322.9638694271506</v>
       </c>
       <c r="AD7" t="n">
-        <v>203617.3056526642</v>
+        <v>260946.9933473998</v>
       </c>
       <c r="AE7" t="n">
-        <v>278598.1805553864</v>
+        <v>357039.1884667718</v>
       </c>
       <c r="AF7" t="n">
         <v>1.652744401394361e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.67083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>252009.1612182643</v>
+        <v>322963.8694271506</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>198.7321496495199</v>
+        <v>255.960352117767</v>
       </c>
       <c r="AB8" t="n">
-        <v>271.9140945940154</v>
+        <v>350.2162459411381</v>
       </c>
       <c r="AC8" t="n">
-        <v>245.9629950398708</v>
+        <v>316.7920989602088</v>
       </c>
       <c r="AD8" t="n">
-        <v>198732.1496495199</v>
+        <v>255960.352117767</v>
       </c>
       <c r="AE8" t="n">
-        <v>271914.0945940153</v>
+        <v>350216.2459411381</v>
       </c>
       <c r="AF8" t="n">
         <v>1.681766715282063e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.46666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>245962.9950398708</v>
+        <v>316792.0989602088</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>199.2871470947306</v>
+        <v>256.6168347894629</v>
       </c>
       <c r="AB9" t="n">
-        <v>272.6734665833114</v>
+        <v>351.1144744945235</v>
       </c>
       <c r="AC9" t="n">
-        <v>246.649893632294</v>
+        <v>317.6046018411311</v>
       </c>
       <c r="AD9" t="n">
-        <v>199287.1470947306</v>
+        <v>256616.8347894629</v>
       </c>
       <c r="AE9" t="n">
-        <v>272673.4665833114</v>
+        <v>351114.4744945235</v>
       </c>
       <c r="AF9" t="n">
         <v>1.675934479955348e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.50833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>246649.893632294</v>
+        <v>317604.6018411311</v>
       </c>
     </row>
   </sheetData>
